--- a/app/config/tables/triagem/forms/diagnostic/diagnostic.xlsx
+++ b/app/config/tables/triagem/forms/diagnostic/diagnostic.xlsx
@@ -3,17 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C5E51FA-F3F2-422A-9E20-178DA5F657C6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E0ADAA7-A5D0-49DE-BEE0-8155F400C4EF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="settings" sheetId="1" r:id="rId1"/>
-    <sheet name="survey" sheetId="2" r:id="rId2"/>
-    <sheet name="choices" sheetId="3" r:id="rId3"/>
-    <sheet name="calculates" sheetId="4" r:id="rId4"/>
-    <sheet name="prompt_types" sheetId="5" r:id="rId5"/>
-    <sheet name="model" sheetId="6" r:id="rId6"/>
+    <sheet name="initial" sheetId="7" r:id="rId1"/>
+    <sheet name="settings" sheetId="1" r:id="rId2"/>
+    <sheet name="survey" sheetId="2" r:id="rId3"/>
+    <sheet name="choices" sheetId="3" r:id="rId4"/>
+    <sheet name="calculates" sheetId="4" r:id="rId5"/>
+    <sheet name="prompt_types" sheetId="5" r:id="rId6"/>
+    <sheet name="model" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="458">
   <si>
     <t>setting_name</t>
   </si>
@@ -1236,9 +1237,6 @@
     <t>saida</t>
   </si>
   <si>
-    <t>test</t>
-  </si>
-  <si>
     <t>hos</t>
   </si>
   <si>
@@ -1272,24 +1270,12 @@
     <t>saidacom</t>
   </si>
   <si>
-    <t>cam1i</t>
-  </si>
-  <si>
-    <t>cam1na</t>
-  </si>
-  <si>
     <t>saidana</t>
   </si>
   <si>
     <t>vcartT</t>
   </si>
   <si>
-    <t>sec1</t>
-  </si>
-  <si>
-    <t>cam1</t>
-  </si>
-  <si>
     <t>vcartR</t>
   </si>
   <si>
@@ -1374,18 +1360,12 @@
     <t>roundsdate</t>
   </si>
   <si>
-    <t>cam1in</t>
-  </si>
-  <si>
     <t>camq</t>
   </si>
   <si>
     <t>roundq</t>
   </si>
   <si>
-    <t>sec1in</t>
-  </si>
-  <si>
     <t>secq</t>
   </si>
   <si>
@@ -1407,12 +1387,6 @@
     <t>Child dead</t>
   </si>
   <si>
-    <t>sec1q</t>
-  </si>
-  <si>
-    <t>cam1q</t>
-  </si>
-  <si>
     <t>N - Disnotri</t>
   </si>
   <si>
@@ -1420,6 +1394,18 @@
   </si>
   <si>
     <t>NA - Don't know</t>
+  </si>
+  <si>
+    <t>do section survey</t>
+  </si>
+  <si>
+    <t>goto _finalize</t>
+  </si>
+  <si>
+    <t>skips the finalize screen where the user chooses to save as incomplete or finalized and instead saves as finalized</t>
+  </si>
+  <si>
+    <t>vdcart</t>
   </si>
 </sst>
 </file>
@@ -1464,7 +1450,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1509,12 +1495,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1522,12 +1502,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1560,7 +1534,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1579,12 +1553,10 @@
     <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="9" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="9" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="10" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{B24E2DBD-C98B-43BE-8700-82C21F1CBFF5}"/>
@@ -1876,6 +1848,59 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9528E722-904A-4C89-94AE-50148C5710EF}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.42578125" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="53.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
@@ -1990,7 +2015,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D3902AA-ED11-47DF-B8BC-39F5B6F88EDF}">
   <dimension ref="A1:P459"/>
   <sheetViews>
@@ -4417,7 +4442,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{138BD5C9-A048-4A3C-8E58-D18F5ADE85B5}">
   <dimension ref="A1:D206"/>
   <sheetViews>
@@ -6925,38 +6950,38 @@
     </row>
     <row r="171" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B171" s="7" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C171" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="172" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B172" s="7" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C172" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="173" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B173" s="7" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C173" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="174" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -7093,55 +7118,55 @@
     </row>
     <row r="185" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B185" s="5" t="str">
         <f>"51"</f>
         <v>51</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="186" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B186" s="5" t="str">
         <f>"53"</f>
         <v>53</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="187" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B187" s="5" t="str">
         <f>"54"</f>
         <v>54</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="188" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B188" s="5" t="str">
         <f>"55"</f>
         <v>55</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="189" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="7" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="B189" s="8" t="s">
         <v>304</v>
@@ -7152,196 +7177,196 @@
     </row>
     <row r="190" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
     </row>
     <row r="191" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
     </row>
     <row r="192" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="B192" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="B192" s="5" t="s">
-        <v>426</v>
-      </c>
       <c r="C192" s="5" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
     </row>
     <row r="193" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
     </row>
     <row r="194" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="5" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
     </row>
     <row r="195" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
     </row>
     <row r="196" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
     </row>
     <row r="197" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
     </row>
     <row r="198" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="5" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
     </row>
     <row r="199" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="5" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B199" s="5" t="s">
         <v>62</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
     </row>
     <row r="200" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="7" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="B200" s="7" t="str">
         <f>"999"</f>
         <v>999</v>
       </c>
       <c r="C200" s="7" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
     </row>
     <row r="201" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="5" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="B201" s="5" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
     </row>
     <row r="202" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="7" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="B202" s="7" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C202" s="7" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
     </row>
     <row r="203" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="5" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="B203" s="5" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
     </row>
     <row r="204" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="5" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="B204" s="5" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
     </row>
     <row r="205" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="5" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="B205" s="5" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
     </row>
     <row r="206" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="5" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="B206" s="5" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
     </row>
   </sheetData>
@@ -7350,7 +7375,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E4C4F0F-BFC8-4609-90AE-137765AD6084}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -7392,7 +7417,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAEB7104-0CF4-465A-808C-30895389A8B5}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -7440,12 +7465,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49955335-AC2E-46D7-A127-46FEF28BC146}">
-  <dimension ref="A1:D149"/>
+  <dimension ref="A1:D141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="A144" sqref="A144:XFD144"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A31" sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7849,7 +7874,7 @@
         <v>397</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C36" s="12" t="b">
         <v>0</v>
@@ -7978,7 +8003,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B48" s="12" t="s">
         <v>8</v>
@@ -8120,651 +8145,651 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="16" t="s">
+      <c r="A61" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="B61" s="16" t="s">
+      <c r="B61" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C61" s="16" t="b">
+      <c r="C61" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="16" t="s">
+      <c r="A62" s="15" t="s">
         <v>297</v>
       </c>
-      <c r="B62" s="16" t="s">
+      <c r="B62" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C62" s="16" t="b">
+      <c r="C62" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="16" t="s">
+      <c r="A63" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="B63" s="16" t="s">
+      <c r="B63" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C63" s="16" t="b">
+      <c r="C63" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="16" t="s">
+      <c r="A64" s="15" t="s">
         <v>298</v>
       </c>
-      <c r="B64" s="16" t="s">
+      <c r="B64" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C64" s="16" t="b">
+      <c r="C64" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="16" t="s">
+      <c r="A65" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="B65" s="16" t="s">
+      <c r="B65" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C65" s="16" t="b">
+      <c r="C65" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="16" t="s">
+      <c r="A66" s="15" t="s">
         <v>296</v>
       </c>
-      <c r="B66" s="16" t="s">
+      <c r="B66" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C66" s="16" t="b">
+      <c r="C66" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="16" t="s">
+      <c r="A67" s="15" t="s">
         <v>299</v>
       </c>
-      <c r="B67" s="16" t="s">
+      <c r="B67" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C67" s="16" t="b">
+      <c r="C67" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="16" t="s">
+      <c r="A68" s="15" t="s">
         <v>300</v>
       </c>
-      <c r="B68" s="16" t="s">
+      <c r="B68" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="C68" s="16" t="b">
+      <c r="C68" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="16" t="s">
+      <c r="A69" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="B69" s="16" t="s">
+      <c r="B69" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C69" s="16" t="b">
+      <c r="C69" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="16" t="s">
+      <c r="A70" s="15" t="s">
         <v>286</v>
       </c>
-      <c r="B70" s="16" t="s">
+      <c r="B70" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="C70" s="16" t="b">
+      <c r="C70" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="16" t="s">
+      <c r="A71" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="B71" s="16" t="s">
+      <c r="B71" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C71" s="16" t="b">
+      <c r="C71" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="16" t="s">
+      <c r="A72" s="15" t="s">
         <v>295</v>
       </c>
-      <c r="B72" s="16" t="s">
+      <c r="B72" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C72" s="16" t="b">
+      <c r="C72" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="16" t="s">
+      <c r="A73" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="B73" s="16" t="s">
+      <c r="B73" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C73" s="16" t="b">
+      <c r="C73" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="16" t="s">
+      <c r="A74" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="B74" s="16" t="s">
+      <c r="B74" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="C74" s="16" t="b">
+      <c r="C74" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="17" t="s">
+      <c r="A75" s="16" t="s">
         <v>271</v>
       </c>
-      <c r="B75" s="16" t="s">
+      <c r="B75" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C75" s="16" t="b">
+      <c r="C75" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="17" t="s">
+      <c r="A76" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="B76" s="16" t="s">
+      <c r="B76" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="C76" s="16" t="b">
+      <c r="C76" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="17" t="s">
+      <c r="A77" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="B77" s="16" t="s">
+      <c r="B77" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C77" s="16" t="b">
+      <c r="C77" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="17" t="s">
+      <c r="A78" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="B78" s="16" t="s">
+      <c r="B78" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="C78" s="16" t="b">
+      <c r="C78" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="17" t="s">
+      <c r="A79" s="16" t="s">
         <v>279</v>
       </c>
-      <c r="B79" s="16" t="s">
+      <c r="B79" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C79" s="16" t="b">
+      <c r="C79" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="17" t="s">
+      <c r="A80" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="B80" s="16" t="s">
+      <c r="B80" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="C80" s="16" t="b">
+      <c r="C80" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="16" t="s">
+      <c r="A81" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="B81" s="16" t="s">
+      <c r="B81" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C81" s="16" t="b">
+      <c r="C81" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="16" t="s">
+      <c r="A82" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="B82" s="16" t="s">
+      <c r="B82" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C82" s="16" t="b">
+      <c r="C82" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="16" t="s">
+      <c r="A83" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="B83" s="16" t="s">
+      <c r="B83" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C83" s="16" t="b">
+      <c r="C83" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="16" t="s">
+      <c r="A84" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="B84" s="16" t="s">
+      <c r="B84" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C84" s="16" t="b">
+      <c r="C84" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="16" t="s">
+      <c r="A85" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="B85" s="16" t="s">
+      <c r="B85" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C85" s="16" t="b">
+      <c r="C85" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="16" t="s">
+      <c r="A86" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="B86" s="16" t="s">
+      <c r="B86" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C86" s="16" t="b">
+      <c r="C86" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="16" t="s">
+      <c r="A87" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="B87" s="16" t="s">
+      <c r="B87" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C87" s="16" t="b">
+      <c r="C87" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="16" t="s">
+      <c r="A88" s="15" t="s">
         <v>291</v>
       </c>
-      <c r="B88" s="16" t="s">
+      <c r="B88" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C88" s="16" t="b">
+      <c r="C88" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="16" t="s">
+      <c r="A89" s="15" t="s">
         <v>288</v>
       </c>
-      <c r="B89" s="16" t="s">
+      <c r="B89" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="C89" s="16" t="b">
+      <c r="C89" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="16" t="s">
+      <c r="A90" s="15" t="s">
         <v>293</v>
       </c>
-      <c r="B90" s="16" t="s">
+      <c r="B90" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C90" s="16" t="b">
+      <c r="C90" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="16" t="s">
+      <c r="A91" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="B91" s="16" t="s">
+      <c r="B91" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="C91" s="16" t="b">
+      <c r="C91" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="16" t="s">
+      <c r="A92" s="15" t="s">
         <v>292</v>
       </c>
-      <c r="B92" s="16" t="s">
+      <c r="B92" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C92" s="16" t="b">
+      <c r="C92" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="16" t="s">
+      <c r="A93" s="15" t="s">
         <v>289</v>
       </c>
-      <c r="B93" s="16" t="s">
+      <c r="B93" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="C93" s="16" t="b">
+      <c r="C93" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="17" t="s">
+      <c r="A94" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="B94" s="16" t="s">
+      <c r="B94" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="C94" s="16" t="b">
+      <c r="C94" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="17" t="s">
+      <c r="A95" s="16" t="s">
         <v>270</v>
       </c>
-      <c r="B95" s="16" t="s">
+      <c r="B95" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C95" s="16" t="b">
+      <c r="C95" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="17" t="s">
+      <c r="A96" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="B96" s="16" t="s">
+      <c r="B96" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="C96" s="16" t="b">
+      <c r="C96" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="17" t="s">
+      <c r="A97" s="16" t="s">
         <v>285</v>
       </c>
-      <c r="B97" s="16" t="s">
+      <c r="B97" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C97" s="16" t="b">
+      <c r="C97" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="17" t="s">
+      <c r="A98" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="B98" s="16" t="s">
+      <c r="B98" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="C98" s="16" t="b">
+      <c r="C98" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="17" t="s">
+      <c r="A99" s="16" t="s">
         <v>273</v>
       </c>
-      <c r="B99" s="16" t="s">
+      <c r="B99" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C99" s="16" t="b">
+      <c r="C99" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="17" t="s">
+      <c r="A100" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="B100" s="16" t="s">
+      <c r="B100" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="C100" s="16" t="b">
+      <c r="C100" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="17" t="s">
+      <c r="A101" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="B101" s="16" t="s">
+      <c r="B101" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C101" s="16" t="b">
+      <c r="C101" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="17" t="s">
+      <c r="A102" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="B102" s="16" t="s">
+      <c r="B102" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="C102" s="16" t="b">
+      <c r="C102" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="17" t="s">
+      <c r="A103" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="B103" s="16" t="s">
+      <c r="B103" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C103" s="16" t="b">
+      <c r="C103" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="17" t="s">
+      <c r="A104" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="B104" s="16" t="s">
+      <c r="B104" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="C104" s="16" t="b">
+      <c r="C104" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="17" t="s">
+      <c r="A105" s="16" t="s">
         <v>274</v>
       </c>
-      <c r="B105" s="16" t="s">
+      <c r="B105" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C105" s="16" t="b">
+      <c r="C105" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="17" t="s">
+      <c r="A106" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="B106" s="16" t="s">
+      <c r="B106" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="C106" s="16" t="b">
+      <c r="C106" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="17" t="s">
+      <c r="A107" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="B107" s="16" t="s">
+      <c r="B107" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C107" s="16" t="b">
+      <c r="C107" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="17" t="s">
+      <c r="A108" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="B108" s="16" t="s">
+      <c r="B108" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="C108" s="16" t="b">
+      <c r="C108" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="17" t="s">
+      <c r="A109" s="16" t="s">
         <v>282</v>
       </c>
-      <c r="B109" s="16" t="s">
+      <c r="B109" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C109" s="16" t="b">
+      <c r="C109" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="17" t="s">
+      <c r="A110" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="B110" s="16" t="s">
+      <c r="B110" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="C110" s="16" t="b">
+      <c r="C110" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="17" t="s">
+      <c r="A111" s="16" t="s">
         <v>272</v>
       </c>
-      <c r="B111" s="16" t="s">
+      <c r="B111" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C111" s="16" t="b">
+      <c r="C111" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="17" t="s">
+      <c r="A112" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="B112" s="16" t="s">
+      <c r="B112" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="C112" s="16" t="b">
+      <c r="C112" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="17" t="s">
+      <c r="A113" s="16" t="s">
         <v>276</v>
       </c>
-      <c r="B113" s="16" t="s">
+      <c r="B113" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C113" s="16" t="b">
+      <c r="C113" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="17" t="s">
+      <c r="A114" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="B114" s="16" t="s">
+      <c r="B114" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="C114" s="16" t="b">
+      <c r="C114" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="17" t="s">
+      <c r="A115" s="16" t="s">
         <v>280</v>
       </c>
-      <c r="B115" s="16" t="s">
+      <c r="B115" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C115" s="16" t="b">
+      <c r="C115" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="17" t="s">
+      <c r="A116" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="B116" s="16" t="s">
+      <c r="B116" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="C116" s="16" t="b">
+      <c r="C116" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="17" t="s">
+      <c r="A117" s="16" t="s">
         <v>283</v>
       </c>
-      <c r="B117" s="16" t="s">
+      <c r="B117" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C117" s="16" t="b">
+      <c r="C117" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="17" t="s">
+      <c r="A118" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="B118" s="16" t="s">
+      <c r="B118" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="C118" s="16" t="b">
+      <c r="C118" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="17" t="s">
+      <c r="A119" s="16" t="s">
         <v>284</v>
       </c>
-      <c r="B119" s="16" t="s">
+      <c r="B119" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C119" s="16" t="b">
+      <c r="C119" s="15" t="b">
         <v>1</v>
       </c>
     </row>
@@ -8802,151 +8827,151 @@
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" s="18" t="s">
+      <c r="A123" s="17" t="s">
         <v>384</v>
       </c>
-      <c r="B123" s="19" t="s">
+      <c r="B123" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C123" s="19" t="b">
+      <c r="C123" s="18" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="18" t="s">
+      <c r="A124" s="17" t="s">
         <v>383</v>
       </c>
-      <c r="B124" s="19" t="s">
+      <c r="B124" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="C124" s="19" t="b">
+      <c r="C124" s="18" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="18" t="s">
+      <c r="A125" s="17" t="s">
         <v>392</v>
       </c>
-      <c r="B125" s="19" t="s">
+      <c r="B125" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C125" s="19" t="b">
+      <c r="C125" s="18" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="18" t="s">
+      <c r="A126" s="17" t="s">
         <v>393</v>
       </c>
-      <c r="B126" s="19" t="s">
+      <c r="B126" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="C126" s="19" t="b">
+      <c r="C126" s="18" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="21" t="s">
-        <v>418</v>
-      </c>
-      <c r="B127" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C127" s="21" t="b">
+      <c r="A127" s="19" t="s">
+        <v>435</v>
+      </c>
+      <c r="B127" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C127" s="19" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" s="21" t="s">
-        <v>440</v>
-      </c>
-      <c r="B128" s="21" t="s">
+      <c r="A128" s="19" t="s">
+        <v>436</v>
+      </c>
+      <c r="B128" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C128" s="21" t="b">
+      <c r="C128" s="19" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="21" t="s">
+      <c r="A129" s="19" t="s">
         <v>441</v>
       </c>
-      <c r="B129" s="21" t="s">
+      <c r="B129" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C129" s="21" t="b">
+      <c r="C129" s="19" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="21" t="s">
+      <c r="A130" s="19" t="s">
         <v>400</v>
       </c>
-      <c r="B130" s="21" t="s">
+      <c r="B130" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C130" s="21" t="b">
+      <c r="C130" s="19" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="21" t="s">
-        <v>412</v>
-      </c>
-      <c r="B131" s="21" t="s">
+      <c r="A131" s="19" t="s">
+        <v>411</v>
+      </c>
+      <c r="B131" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C131" s="21" t="b">
+      <c r="C131" s="19" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="21" t="s">
-        <v>417</v>
-      </c>
-      <c r="B132" s="21" t="s">
+      <c r="A132" s="19" t="s">
+        <v>399</v>
+      </c>
+      <c r="B132" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C132" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="19" t="s">
+        <v>414</v>
+      </c>
+      <c r="B133" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C133" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="19" t="s">
+        <v>457</v>
+      </c>
+      <c r="B134" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C134" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="B135" s="10" t="s">
         <v>36</v>
-      </c>
-      <c r="C132" s="21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="21" t="s">
-        <v>399</v>
-      </c>
-      <c r="B133" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C133" s="21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" s="21" t="s">
-        <v>419</v>
-      </c>
-      <c r="B134" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C134" s="21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="10" t="s">
-        <v>413</v>
-      </c>
-      <c r="B135" s="10" t="s">
-        <v>20</v>
       </c>
       <c r="C135" s="10" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="10" t="s">
-        <v>414</v>
+      <c r="A136" s="11" t="s">
+        <v>438</v>
       </c>
       <c r="B136" s="10" t="s">
         <v>146</v>
@@ -8957,7 +8982,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="11" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B137" s="10" t="s">
         <v>36</v>
@@ -8968,7 +8993,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="11" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B138" s="10" t="s">
         <v>146</v>
@@ -8978,125 +9003,29 @@
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="11" t="s">
-        <v>444</v>
+      <c r="A139" s="10" t="s">
+        <v>412</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>36</v>
+        <v>146</v>
       </c>
       <c r="C139" s="10" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" s="11" t="s">
-        <v>445</v>
+      <c r="A140" s="10" t="s">
+        <v>410</v>
       </c>
       <c r="B140" s="10" t="s">
-        <v>146</v>
+        <v>50</v>
       </c>
       <c r="C140" s="10" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" s="10" t="s">
-        <v>415</v>
-      </c>
-      <c r="B141" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="C141" s="10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="10" t="s">
-        <v>411</v>
-      </c>
-      <c r="B142" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C142" s="10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" s="15" t="s">
-        <v>446</v>
-      </c>
-      <c r="B143" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C143" s="15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" s="15" t="s">
-        <v>401</v>
-      </c>
-      <c r="B144" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C144" s="15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" s="20" t="s">
-        <v>447</v>
-      </c>
-      <c r="B145" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C145" s="20" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" s="20" t="s">
-        <v>459</v>
-      </c>
-      <c r="B146" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="C146" s="20" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" s="20" t="s">
-        <v>449</v>
-      </c>
-      <c r="B147" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C147" s="20" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" s="20" t="s">
-        <v>450</v>
-      </c>
-      <c r="B148" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C148" s="20" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" s="20" t="s">
-        <v>458</v>
-      </c>
-      <c r="B149" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="C149" s="20" t="b">
-        <v>1</v>
-      </c>
+      <c r="A141" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/app/config/tables/triagem/forms/diagnostic/diagnostic.xlsx
+++ b/app/config/tables/triagem/forms/diagnostic/diagnostic.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D88FB1D-0D94-4065-A43F-73F3FD4B9A58}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A95EFDDA-070C-4AE5-A4C0-9BBADBB901FF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="7" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="505">
   <si>
     <t>setting_name</t>
   </si>
@@ -1153,12 +1153,6 @@
     <t>diag 10</t>
   </si>
   <si>
-    <t>Diagnosis 1</t>
-  </si>
-  <si>
-    <t>Diagnosis 2</t>
-  </si>
-  <si>
     <t>prodiag1</t>
   </si>
   <si>
@@ -1267,24 +1261,9 @@
     <t>defdiag2n</t>
   </si>
   <si>
-    <t>roundsdate</t>
-  </si>
-  <si>
-    <t>camq</t>
-  </si>
-  <si>
     <t>roundq</t>
   </si>
   <si>
-    <t>secq</t>
-  </si>
-  <si>
-    <t>Child has moved section</t>
-  </si>
-  <si>
-    <t>Child has moved bed</t>
-  </si>
-  <si>
     <t>NA - Don't know</t>
   </si>
   <si>
@@ -1460,6 +1439,114 @@
   </si>
   <si>
     <t>NA - Não sabe</t>
+  </si>
+  <si>
+    <t>cam1</t>
+  </si>
+  <si>
+    <t>sec1</t>
+  </si>
+  <si>
+    <t>cam1na</t>
+  </si>
+  <si>
+    <t>roundsdateinit</t>
+  </si>
+  <si>
+    <t>roundsdatelate</t>
+  </si>
+  <si>
+    <t>initroundcom</t>
+  </si>
+  <si>
+    <t>dbf</t>
+  </si>
+  <si>
+    <t>campdata</t>
+  </si>
+  <si>
+    <t>dataciccri</t>
+  </si>
+  <si>
+    <t>datacicmae</t>
+  </si>
+  <si>
+    <t>geresli</t>
+  </si>
+  <si>
+    <t>malq</t>
+  </si>
+  <si>
+    <t>A-</t>
+  </si>
+  <si>
+    <t>B+</t>
+  </si>
+  <si>
+    <t>B-</t>
+  </si>
+  <si>
+    <t>AB+</t>
+  </si>
+  <si>
+    <t>AB-</t>
+  </si>
+  <si>
+    <t>O+</t>
+  </si>
+  <si>
+    <t>O-</t>
+  </si>
+  <si>
+    <t>mal</t>
+  </si>
+  <si>
+    <t>defdiag3</t>
+  </si>
+  <si>
+    <t>defdiag3n</t>
+  </si>
+  <si>
+    <t>sanguegrpi</t>
+  </si>
+  <si>
+    <t>sanguegrpq</t>
+  </si>
+  <si>
+    <t>prodiag3</t>
+  </si>
+  <si>
+    <t>prodiag3n</t>
+  </si>
+  <si>
+    <t>data('prodiag3n') !=null</t>
+  </si>
+  <si>
+    <t>Pro diagnosis 1</t>
+  </si>
+  <si>
+    <t>Pro diagnosis 2</t>
+  </si>
+  <si>
+    <t>Pro diagnosis 3</t>
+  </si>
+  <si>
+    <t>Prodiagnostico 1</t>
+  </si>
+  <si>
+    <t>Prodiagnostico 2</t>
+  </si>
+  <si>
+    <t>Prodiagnostico 3</t>
+  </si>
+  <si>
+    <t>csobs</t>
+  </si>
+  <si>
+    <t>semanes</t>
+  </si>
+  <si>
+    <t>bloodNA</t>
   </si>
 </sst>
 </file>
@@ -1504,7 +1591,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1577,6 +1664,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1600,7 +1705,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1626,6 +1731,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{B24E2DBD-C98B-43BE-8700-82C21F1CBFF5}"/>
@@ -1988,7 +2096,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1996,12 +2104,12 @@
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
     </row>
   </sheetData>
@@ -2126,11 +2234,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D3902AA-ED11-47DF-B8BC-39F5B6F88EDF}">
-  <dimension ref="A1:Q1251"/>
+  <dimension ref="A1:Q1256"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2192,7 +2300,7 @@
         <v>28</v>
       </c>
       <c r="M1" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>144</v>
@@ -2220,7 +2328,7 @@
         <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="G3" t="s">
         <v>307</v>
@@ -2244,10 +2352,13 @@
         <v>362</v>
       </c>
       <c r="F6" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="G6" t="s">
-        <v>373</v>
+        <v>496</v>
+      </c>
+      <c r="H6" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -2255,26 +2366,26 @@
         <v>146</v>
       </c>
       <c r="E7" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F7" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C8" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F9" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L9">
         <v>9999</v>
@@ -2282,7 +2393,7 @@
     </row>
     <row r="10" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -2293,10 +2404,13 @@
         <v>362</v>
       </c>
       <c r="F11" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G11" t="s">
-        <v>374</v>
+        <v>497</v>
+      </c>
+      <c r="H11" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -2304,26 +2418,26 @@
         <v>146</v>
       </c>
       <c r="E12" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F12" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C13" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F14" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="L14">
         <v>9999</v>
@@ -2331,33 +2445,80 @@
     </row>
     <row r="15" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" t="s">
+        <v>362</v>
+      </c>
+      <c r="F16" t="s">
+        <v>493</v>
+      </c>
+      <c r="G16" t="s">
+        <v>498</v>
+      </c>
+      <c r="H16" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>146</v>
+      </c>
+      <c r="E17" t="s">
+        <v>376</v>
+      </c>
+      <c r="F17" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>378</v>
+      </c>
+      <c r="C18" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>380</v>
+      </c>
+      <c r="F19" t="s">
+        <v>493</v>
+      </c>
+      <c r="L19">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="37" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="38" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="39" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2374,163 +2535,118 @@
     <row r="50" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="51" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="52" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I143" s="3"/>
-    </row>
-    <row r="144" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I144" s="3"/>
-    </row>
-    <row r="145" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I145" s="3"/>
-    </row>
-    <row r="146" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I146" s="3"/>
-    </row>
-    <row r="147" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I147" s="3"/>
-    </row>
-    <row r="148" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="53" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I148" s="3"/>
     </row>
-    <row r="149" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I149" s="3"/>
     </row>
-    <row r="150" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I150" s="3"/>
     </row>
-    <row r="151" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I151" s="3"/>
     </row>
-    <row r="152" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I152" s="3"/>
     </row>
-    <row r="153" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I153" s="3"/>
     </row>
-    <row r="154" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I154" s="3"/>
     </row>
-    <row r="155" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I155" s="3"/>
     </row>
-    <row r="156" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I156" s="3"/>
     </row>
-    <row r="157" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="M157" s="1"/>
-    </row>
-    <row r="158" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I157" s="3"/>
+    </row>
+    <row r="158" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I158" s="3"/>
     </row>
-    <row r="159" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I159" s="3"/>
-      <c r="M159" s="1"/>
-    </row>
-    <row r="160" spans="9:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="160" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I160" s="3"/>
-      <c r="M160" s="1"/>
-    </row>
-    <row r="161" spans="6:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="161" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I161" s="3"/>
-      <c r="M161" s="1"/>
-    </row>
-    <row r="162" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="I162" s="3"/>
+    </row>
+    <row r="162" spans="9:13" x14ac:dyDescent="0.25">
       <c r="M162" s="1"/>
     </row>
-    <row r="163" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="163" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I163" s="3"/>
-      <c r="M163" s="1"/>
-    </row>
-    <row r="164" spans="6:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="164" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I164" s="3"/>
       <c r="M164" s="1"/>
     </row>
-    <row r="165" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="165" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I165" s="3"/>
       <c r="M165" s="1"/>
     </row>
-    <row r="166" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="166" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I166" s="3"/>
       <c r="M166" s="1"/>
     </row>
-    <row r="167" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="167" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I167" s="3"/>
       <c r="M167" s="1"/>
     </row>
-    <row r="168" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="168" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I168" s="3"/>
       <c r="M168" s="1"/>
     </row>
-    <row r="169" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="169" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I169" s="3"/>
       <c r="M169" s="1"/>
     </row>
-    <row r="170" spans="6:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I170" s="3"/>
       <c r="M170" s="1"/>
     </row>
-    <row r="171" spans="6:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I171" s="3"/>
       <c r="M171" s="1"/>
     </row>
-    <row r="172" spans="6:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I172" s="3"/>
       <c r="M172" s="1"/>
     </row>
-    <row r="173" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F173" s="1"/>
+    <row r="173" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I173" s="3"/>
       <c r="M173" s="1"/>
     </row>
-    <row r="174" spans="6:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="9:13" x14ac:dyDescent="0.25">
       <c r="M174" s="1"/>
     </row>
-    <row r="176" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F176" s="1"/>
-      <c r="G176" s="1"/>
-      <c r="H176" s="1"/>
-      <c r="I176" s="1"/>
-      <c r="J176" s="1"/>
-      <c r="K176" s="1"/>
-      <c r="L176" s="1"/>
-      <c r="N176" s="1"/>
-      <c r="O176" s="1"/>
-      <c r="P176" s="1"/>
+    <row r="175" spans="9:13" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M175" s="1"/>
+    </row>
+    <row r="176" spans="9:13" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M176" s="1"/>
+    </row>
+    <row r="177" spans="5:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M177" s="1"/>
     </row>
     <row r="178" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E178" s="1"/>
       <c r="F178" s="1"/>
-      <c r="G178" s="1"/>
-      <c r="H178" s="1"/>
-      <c r="I178" s="1"/>
-      <c r="J178" s="1"/>
-      <c r="K178" s="1"/>
-      <c r="L178" s="1"/>
-      <c r="N178" s="1"/>
-      <c r="O178" s="1"/>
-      <c r="P178" s="1"/>
-    </row>
-    <row r="179" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E179" s="1"/>
-      <c r="F179" s="1"/>
-      <c r="G179" s="1"/>
-      <c r="H179" s="1"/>
-      <c r="I179" s="1"/>
-      <c r="J179" s="1"/>
-      <c r="K179" s="1"/>
-      <c r="L179" s="1"/>
-      <c r="N179" s="1"/>
-      <c r="O179" s="1"/>
-      <c r="P179" s="1"/>
-    </row>
-    <row r="180" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F180" s="1"/>
-      <c r="G180" s="1"/>
-      <c r="H180" s="1"/>
-      <c r="I180" s="1"/>
-      <c r="J180" s="1"/>
-      <c r="K180" s="1"/>
-      <c r="L180" s="1"/>
-      <c r="N180" s="1"/>
-      <c r="O180" s="1"/>
-      <c r="P180" s="1"/>
+      <c r="M178" s="1"/>
+    </row>
+    <row r="179" spans="5:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M179" s="1"/>
     </row>
     <row r="181" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F181" s="1"/>
@@ -2544,19 +2660,8 @@
       <c r="O181" s="1"/>
       <c r="P181" s="1"/>
     </row>
-    <row r="182" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F182" s="1"/>
-      <c r="G182" s="1"/>
-      <c r="H182" s="1"/>
-      <c r="I182" s="1"/>
-      <c r="J182" s="1"/>
-      <c r="K182" s="1"/>
-      <c r="L182" s="1"/>
-      <c r="N182" s="1"/>
-      <c r="O182" s="1"/>
-      <c r="P182" s="1"/>
-    </row>
     <row r="183" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E183" s="1"/>
       <c r="F183" s="1"/>
       <c r="G183" s="1"/>
       <c r="H183" s="1"/>
@@ -2569,6 +2674,7 @@
       <c r="P183" s="1"/>
     </row>
     <row r="184" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E184" s="1"/>
       <c r="F184" s="1"/>
       <c r="G184" s="1"/>
       <c r="H184" s="1"/>
@@ -2612,13 +2718,11 @@
       <c r="J187" s="1"/>
       <c r="K187" s="1"/>
       <c r="L187" s="1"/>
-      <c r="M187" s="1"/>
       <c r="N187" s="1"/>
       <c r="O187" s="1"/>
       <c r="P187" s="1"/>
     </row>
     <row r="188" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E188" s="1"/>
       <c r="F188" s="1"/>
       <c r="G188" s="1"/>
       <c r="H188" s="1"/>
@@ -2626,13 +2730,11 @@
       <c r="J188" s="1"/>
       <c r="K188" s="1"/>
       <c r="L188" s="1"/>
-      <c r="M188" s="1"/>
       <c r="N188" s="1"/>
       <c r="O188" s="1"/>
       <c r="P188" s="1"/>
     </row>
     <row r="189" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E189" s="1"/>
       <c r="F189" s="1"/>
       <c r="G189" s="1"/>
       <c r="H189" s="1"/>
@@ -2640,7 +2742,6 @@
       <c r="J189" s="1"/>
       <c r="K189" s="1"/>
       <c r="L189" s="1"/>
-      <c r="M189" s="1"/>
       <c r="N189" s="1"/>
       <c r="O189" s="1"/>
       <c r="P189" s="1"/>
@@ -2653,7 +2754,6 @@
       <c r="J190" s="1"/>
       <c r="K190" s="1"/>
       <c r="L190" s="1"/>
-      <c r="M190" s="1"/>
       <c r="N190" s="1"/>
       <c r="O190" s="1"/>
       <c r="P190" s="1"/>
@@ -2666,7 +2766,6 @@
       <c r="J191" s="1"/>
       <c r="K191" s="1"/>
       <c r="L191" s="1"/>
-      <c r="M191" s="1"/>
       <c r="N191" s="1"/>
       <c r="O191" s="1"/>
       <c r="P191" s="1"/>
@@ -2684,7 +2783,8 @@
       <c r="O192" s="1"/>
       <c r="P192" s="1"/>
     </row>
-    <row r="193" spans="6:17" x14ac:dyDescent="0.25">
+    <row r="193" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E193" s="1"/>
       <c r="F193" s="1"/>
       <c r="G193" s="1"/>
       <c r="H193" s="1"/>
@@ -2697,102 +2797,98 @@
       <c r="O193" s="1"/>
       <c r="P193" s="1"/>
     </row>
-    <row r="194" spans="6:17" x14ac:dyDescent="0.25">
+    <row r="194" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E194" s="1"/>
+      <c r="F194" s="1"/>
+      <c r="G194" s="1"/>
+      <c r="H194" s="1"/>
+      <c r="I194" s="1"/>
+      <c r="J194" s="1"/>
+      <c r="K194" s="1"/>
+      <c r="L194" s="1"/>
       <c r="M194" s="1"/>
-    </row>
-    <row r="197" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="N194" s="1"/>
+      <c r="O194" s="1"/>
+      <c r="P194" s="1"/>
+    </row>
+    <row r="195" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F195" s="1"/>
+      <c r="G195" s="1"/>
+      <c r="H195" s="1"/>
+      <c r="I195" s="1"/>
+      <c r="J195" s="1"/>
+      <c r="K195" s="1"/>
+      <c r="L195" s="1"/>
+      <c r="M195" s="1"/>
+      <c r="N195" s="1"/>
+      <c r="O195" s="1"/>
+      <c r="P195" s="1"/>
+    </row>
+    <row r="196" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F196" s="1"/>
+      <c r="G196" s="1"/>
+      <c r="H196" s="1"/>
+      <c r="I196" s="1"/>
+      <c r="J196" s="1"/>
+      <c r="K196" s="1"/>
+      <c r="L196" s="1"/>
+      <c r="M196" s="1"/>
+      <c r="N196" s="1"/>
+      <c r="O196" s="1"/>
+      <c r="P196" s="1"/>
+    </row>
+    <row r="197" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F197" s="1"/>
+      <c r="G197" s="1"/>
+      <c r="H197" s="1"/>
+      <c r="I197" s="1"/>
+      <c r="J197" s="1"/>
+      <c r="K197" s="1"/>
+      <c r="L197" s="1"/>
       <c r="M197" s="1"/>
-    </row>
-    <row r="198" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="N197" s="1"/>
+      <c r="O197" s="1"/>
+      <c r="P197" s="1"/>
+    </row>
+    <row r="198" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F198" s="1"/>
+      <c r="G198" s="1"/>
+      <c r="H198" s="1"/>
+      <c r="I198" s="1"/>
+      <c r="J198" s="1"/>
+      <c r="K198" s="1"/>
+      <c r="L198" s="1"/>
       <c r="M198" s="1"/>
-    </row>
-    <row r="199" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="N198" s="1"/>
+      <c r="O198" s="1"/>
+      <c r="P198" s="1"/>
+    </row>
+    <row r="199" spans="5:16" x14ac:dyDescent="0.25">
       <c r="M199" s="1"/>
     </row>
-    <row r="200" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="M200" s="1"/>
-    </row>
-    <row r="201" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="M201" s="1"/>
-    </row>
-    <row r="202" spans="6:17" x14ac:dyDescent="0.25">
+    <row r="202" spans="5:16" x14ac:dyDescent="0.25">
       <c r="M202" s="1"/>
     </row>
-    <row r="203" spans="6:17" x14ac:dyDescent="0.25">
+    <row r="203" spans="5:16" x14ac:dyDescent="0.25">
       <c r="M203" s="1"/>
     </row>
-    <row r="204" spans="6:17" x14ac:dyDescent="0.25">
+    <row r="204" spans="5:16" x14ac:dyDescent="0.25">
       <c r="M204" s="1"/>
     </row>
-    <row r="206" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F206" s="1"/>
-      <c r="G206" s="1"/>
-      <c r="H206" s="1"/>
-      <c r="I206" s="1"/>
-      <c r="J206" s="1"/>
-      <c r="K206" s="1"/>
-      <c r="L206" s="1"/>
+    <row r="205" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="M205" s="1"/>
+    </row>
+    <row r="206" spans="5:16" x14ac:dyDescent="0.25">
       <c r="M206" s="1"/>
-      <c r="N206" s="1"/>
-      <c r="O206" s="1"/>
-      <c r="P206" s="1"/>
-      <c r="Q206" s="1"/>
-    </row>
-    <row r="207" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F207" s="1"/>
-      <c r="G207" s="1"/>
-      <c r="H207" s="1"/>
-      <c r="I207" s="1"/>
-      <c r="J207" s="1"/>
-      <c r="K207" s="1"/>
-      <c r="L207" s="1"/>
+    </row>
+    <row r="207" spans="5:16" x14ac:dyDescent="0.25">
       <c r="M207" s="1"/>
-      <c r="N207" s="1"/>
-      <c r="O207" s="1"/>
-      <c r="P207" s="1"/>
-      <c r="Q207" s="1"/>
-    </row>
-    <row r="208" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F208" s="1"/>
-      <c r="G208" s="1"/>
-      <c r="H208" s="1"/>
-      <c r="I208" s="1"/>
-      <c r="J208" s="1"/>
-      <c r="K208" s="1"/>
-      <c r="L208" s="1"/>
+    </row>
+    <row r="208" spans="5:16" x14ac:dyDescent="0.25">
       <c r="M208" s="1"/>
-      <c r="N208" s="1"/>
-      <c r="O208" s="1"/>
-      <c r="P208" s="1"/>
-      <c r="Q208" s="1"/>
     </row>
     <row r="209" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F209" s="1"/>
-      <c r="G209" s="1"/>
-      <c r="H209" s="1"/>
-      <c r="I209" s="1"/>
-      <c r="J209" s="1"/>
-      <c r="K209" s="1"/>
-      <c r="L209" s="1"/>
       <c r="M209" s="1"/>
-      <c r="N209" s="1"/>
-      <c r="O209" s="1"/>
-      <c r="P209" s="1"/>
-      <c r="Q209" s="1"/>
-    </row>
-    <row r="210" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F210" s="1"/>
-      <c r="G210" s="1"/>
-      <c r="H210" s="1"/>
-      <c r="I210" s="1"/>
-      <c r="J210" s="1"/>
-      <c r="K210" s="1"/>
-      <c r="L210" s="1"/>
-      <c r="M210" s="1"/>
-      <c r="N210" s="1"/>
-      <c r="O210" s="1"/>
-      <c r="P210" s="1"/>
-      <c r="Q210" s="1"/>
     </row>
     <row r="211" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F211" s="1"/>
@@ -2836,10 +2932,39 @@
       <c r="P213" s="1"/>
       <c r="Q213" s="1"/>
     </row>
+    <row r="214" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F214" s="1"/>
+      <c r="G214" s="1"/>
+      <c r="H214" s="1"/>
+      <c r="I214" s="1"/>
+      <c r="J214" s="1"/>
+      <c r="K214" s="1"/>
+      <c r="L214" s="1"/>
+      <c r="M214" s="1"/>
+      <c r="N214" s="1"/>
+      <c r="O214" s="1"/>
+      <c r="P214" s="1"/>
+      <c r="Q214" s="1"/>
+    </row>
+    <row r="215" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F215" s="1"/>
+      <c r="G215" s="1"/>
+      <c r="H215" s="1"/>
+      <c r="I215" s="1"/>
+      <c r="J215" s="1"/>
+      <c r="K215" s="1"/>
+      <c r="L215" s="1"/>
+      <c r="M215" s="1"/>
+      <c r="N215" s="1"/>
+      <c r="O215" s="1"/>
+      <c r="P215" s="1"/>
+      <c r="Q215" s="1"/>
+    </row>
     <row r="216" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F216" s="1"/>
       <c r="G216" s="1"/>
       <c r="H216" s="1"/>
+      <c r="I216" s="1"/>
       <c r="J216" s="1"/>
       <c r="K216" s="1"/>
       <c r="L216" s="1"/>
@@ -2853,6 +2978,7 @@
       <c r="F217" s="1"/>
       <c r="G217" s="1"/>
       <c r="H217" s="1"/>
+      <c r="I217" s="1"/>
       <c r="J217" s="1"/>
       <c r="K217" s="1"/>
       <c r="L217" s="1"/>
@@ -2866,6 +2992,7 @@
       <c r="F218" s="1"/>
       <c r="G218" s="1"/>
       <c r="H218" s="1"/>
+      <c r="I218" s="1"/>
       <c r="J218" s="1"/>
       <c r="K218" s="1"/>
       <c r="L218" s="1"/>
@@ -2874,32 +3001,6 @@
       <c r="O218" s="1"/>
       <c r="P218" s="1"/>
       <c r="Q218" s="1"/>
-    </row>
-    <row r="219" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F219" s="1"/>
-      <c r="G219" s="1"/>
-      <c r="H219" s="1"/>
-      <c r="J219" s="1"/>
-      <c r="K219" s="1"/>
-      <c r="L219" s="1"/>
-      <c r="M219" s="1"/>
-      <c r="N219" s="1"/>
-      <c r="O219" s="1"/>
-      <c r="P219" s="1"/>
-      <c r="Q219" s="1"/>
-    </row>
-    <row r="220" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F220" s="1"/>
-      <c r="G220" s="1"/>
-      <c r="H220" s="1"/>
-      <c r="J220" s="1"/>
-      <c r="K220" s="1"/>
-      <c r="L220" s="1"/>
-      <c r="M220" s="1"/>
-      <c r="N220" s="1"/>
-      <c r="O220" s="1"/>
-      <c r="P220" s="1"/>
-      <c r="Q220" s="1"/>
     </row>
     <row r="221" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F221" s="1"/>
@@ -2912,12 +3013,12 @@
       <c r="N221" s="1"/>
       <c r="O221" s="1"/>
       <c r="P221" s="1"/>
+      <c r="Q221" s="1"/>
     </row>
     <row r="222" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F222" s="1"/>
       <c r="G222" s="1"/>
       <c r="H222" s="1"/>
-      <c r="I222" s="1"/>
       <c r="J222" s="1"/>
       <c r="K222" s="1"/>
       <c r="L222" s="1"/>
@@ -2931,7 +3032,6 @@
       <c r="F223" s="1"/>
       <c r="G223" s="1"/>
       <c r="H223" s="1"/>
-      <c r="I223" s="1"/>
       <c r="J223" s="1"/>
       <c r="K223" s="1"/>
       <c r="L223" s="1"/>
@@ -2941,14 +3041,27 @@
       <c r="P223" s="1"/>
       <c r="Q223" s="1"/>
     </row>
+    <row r="224" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F224" s="1"/>
+      <c r="G224" s="1"/>
+      <c r="H224" s="1"/>
+      <c r="J224" s="1"/>
+      <c r="K224" s="1"/>
+      <c r="L224" s="1"/>
+      <c r="M224" s="1"/>
+      <c r="N224" s="1"/>
+      <c r="O224" s="1"/>
+      <c r="P224" s="1"/>
+      <c r="Q224" s="1"/>
+    </row>
     <row r="225" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F225" s="1"/>
       <c r="G225" s="1"/>
       <c r="H225" s="1"/>
-      <c r="I225" s="1"/>
       <c r="J225" s="1"/>
       <c r="K225" s="1"/>
       <c r="L225" s="1"/>
+      <c r="M225" s="1"/>
       <c r="N225" s="1"/>
       <c r="O225" s="1"/>
       <c r="P225" s="1"/>
@@ -2958,7 +3071,6 @@
       <c r="F226" s="1"/>
       <c r="G226" s="1"/>
       <c r="H226" s="1"/>
-      <c r="I226" s="1"/>
       <c r="J226" s="1"/>
       <c r="K226" s="1"/>
       <c r="L226" s="1"/>
@@ -2966,7 +3078,6 @@
       <c r="N226" s="1"/>
       <c r="O226" s="1"/>
       <c r="P226" s="1"/>
-      <c r="Q226" s="1"/>
     </row>
     <row r="227" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F227" s="1"/>
@@ -2996,20 +3107,6 @@
       <c r="P228" s="1"/>
       <c r="Q228" s="1"/>
     </row>
-    <row r="229" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F229" s="1"/>
-      <c r="G229" s="1"/>
-      <c r="H229" s="1"/>
-      <c r="I229" s="1"/>
-      <c r="J229" s="1"/>
-      <c r="K229" s="1"/>
-      <c r="L229" s="1"/>
-      <c r="M229" s="1"/>
-      <c r="N229" s="1"/>
-      <c r="O229" s="1"/>
-      <c r="P229" s="1"/>
-      <c r="Q229" s="1"/>
-    </row>
     <row r="230" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F230" s="1"/>
       <c r="G230" s="1"/>
@@ -3018,7 +3115,6 @@
       <c r="J230" s="1"/>
       <c r="K230" s="1"/>
       <c r="L230" s="1"/>
-      <c r="M230" s="1"/>
       <c r="N230" s="1"/>
       <c r="O230" s="1"/>
       <c r="P230" s="1"/>
@@ -3054,15 +3150,41 @@
     </row>
     <row r="233" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F233" s="1"/>
+      <c r="G233" s="1"/>
+      <c r="H233" s="1"/>
+      <c r="I233" s="1"/>
+      <c r="J233" s="1"/>
+      <c r="K233" s="1"/>
+      <c r="L233" s="1"/>
       <c r="M233" s="1"/>
+      <c r="N233" s="1"/>
+      <c r="O233" s="1"/>
+      <c r="P233" s="1"/>
+      <c r="Q233" s="1"/>
+    </row>
+    <row r="234" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F234" s="1"/>
+      <c r="G234" s="1"/>
+      <c r="H234" s="1"/>
+      <c r="I234" s="1"/>
+      <c r="J234" s="1"/>
+      <c r="K234" s="1"/>
+      <c r="L234" s="1"/>
+      <c r="M234" s="1"/>
+      <c r="N234" s="1"/>
+      <c r="O234" s="1"/>
+      <c r="P234" s="1"/>
+      <c r="Q234" s="1"/>
     </row>
     <row r="235" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F235" s="1"/>
       <c r="G235" s="1"/>
       <c r="H235" s="1"/>
+      <c r="I235" s="1"/>
       <c r="J235" s="1"/>
       <c r="K235" s="1"/>
       <c r="L235" s="1"/>
+      <c r="M235" s="1"/>
       <c r="N235" s="1"/>
       <c r="O235" s="1"/>
       <c r="P235" s="1"/>
@@ -3072,6 +3194,7 @@
       <c r="F236" s="1"/>
       <c r="G236" s="1"/>
       <c r="H236" s="1"/>
+      <c r="I236" s="1"/>
       <c r="J236" s="1"/>
       <c r="K236" s="1"/>
       <c r="L236" s="1"/>
@@ -3085,6 +3208,7 @@
       <c r="F237" s="1"/>
       <c r="G237" s="1"/>
       <c r="H237" s="1"/>
+      <c r="I237" s="1"/>
       <c r="J237" s="1"/>
       <c r="K237" s="1"/>
       <c r="L237" s="1"/>
@@ -3096,29 +3220,7 @@
     </row>
     <row r="238" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F238" s="1"/>
-      <c r="G238" s="1"/>
-      <c r="H238" s="1"/>
-      <c r="J238" s="1"/>
-      <c r="K238" s="1"/>
-      <c r="L238" s="1"/>
       <c r="M238" s="1"/>
-      <c r="N238" s="1"/>
-      <c r="O238" s="1"/>
-      <c r="P238" s="1"/>
-      <c r="Q238" s="1"/>
-    </row>
-    <row r="239" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F239" s="1"/>
-      <c r="G239" s="1"/>
-      <c r="H239" s="1"/>
-      <c r="J239" s="1"/>
-      <c r="K239" s="1"/>
-      <c r="L239" s="1"/>
-      <c r="M239" s="1"/>
-      <c r="N239" s="1"/>
-      <c r="O239" s="1"/>
-      <c r="P239" s="1"/>
-      <c r="Q239" s="1"/>
     </row>
     <row r="240" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F240" s="1"/>
@@ -3127,7 +3229,6 @@
       <c r="J240" s="1"/>
       <c r="K240" s="1"/>
       <c r="L240" s="1"/>
-      <c r="M240" s="1"/>
       <c r="N240" s="1"/>
       <c r="O240" s="1"/>
       <c r="P240" s="1"/>
@@ -3137,7 +3238,6 @@
       <c r="F241" s="1"/>
       <c r="G241" s="1"/>
       <c r="H241" s="1"/>
-      <c r="I241" s="1"/>
       <c r="J241" s="1"/>
       <c r="K241" s="1"/>
       <c r="L241" s="1"/>
@@ -3151,7 +3251,6 @@
       <c r="F242" s="1"/>
       <c r="G242" s="1"/>
       <c r="H242" s="1"/>
-      <c r="I242" s="1"/>
       <c r="J242" s="1"/>
       <c r="K242" s="1"/>
       <c r="L242" s="1"/>
@@ -3159,9 +3258,33 @@
       <c r="N242" s="1"/>
       <c r="O242" s="1"/>
       <c r="P242" s="1"/>
+      <c r="Q242" s="1"/>
     </row>
     <row r="243" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F243" s="1"/>
+      <c r="G243" s="1"/>
+      <c r="H243" s="1"/>
+      <c r="J243" s="1"/>
+      <c r="K243" s="1"/>
+      <c r="L243" s="1"/>
+      <c r="M243" s="1"/>
+      <c r="N243" s="1"/>
+      <c r="O243" s="1"/>
+      <c r="P243" s="1"/>
+      <c r="Q243" s="1"/>
+    </row>
+    <row r="244" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F244" s="1"/>
+      <c r="G244" s="1"/>
+      <c r="H244" s="1"/>
+      <c r="J244" s="1"/>
+      <c r="K244" s="1"/>
+      <c r="L244" s="1"/>
+      <c r="M244" s="1"/>
+      <c r="N244" s="1"/>
+      <c r="O244" s="1"/>
+      <c r="P244" s="1"/>
+      <c r="Q244" s="1"/>
     </row>
     <row r="245" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F245" s="1"/>
@@ -3180,6 +3303,7 @@
       <c r="F246" s="1"/>
       <c r="G246" s="1"/>
       <c r="H246" s="1"/>
+      <c r="I246" s="1"/>
       <c r="J246" s="1"/>
       <c r="K246" s="1"/>
       <c r="L246" s="1"/>
@@ -3193,6 +3317,7 @@
       <c r="F247" s="1"/>
       <c r="G247" s="1"/>
       <c r="H247" s="1"/>
+      <c r="I247" s="1"/>
       <c r="J247" s="1"/>
       <c r="K247" s="1"/>
       <c r="L247" s="1"/>
@@ -3200,33 +3325,9 @@
       <c r="N247" s="1"/>
       <c r="O247" s="1"/>
       <c r="P247" s="1"/>
-      <c r="Q247" s="1"/>
     </row>
     <row r="248" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F248" s="1"/>
-      <c r="G248" s="1"/>
-      <c r="H248" s="1"/>
-      <c r="J248" s="1"/>
-      <c r="K248" s="1"/>
-      <c r="L248" s="1"/>
-      <c r="M248" s="1"/>
-      <c r="N248" s="1"/>
-      <c r="O248" s="1"/>
-      <c r="P248" s="1"/>
-      <c r="Q248" s="1"/>
-    </row>
-    <row r="249" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F249" s="1"/>
-      <c r="G249" s="1"/>
-      <c r="H249" s="1"/>
-      <c r="J249" s="1"/>
-      <c r="K249" s="1"/>
-      <c r="L249" s="1"/>
-      <c r="M249" s="1"/>
-      <c r="N249" s="1"/>
-      <c r="O249" s="1"/>
-      <c r="P249" s="1"/>
-      <c r="Q249" s="1"/>
     </row>
     <row r="250" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F250" s="1"/>
@@ -3245,7 +3346,6 @@
       <c r="F251" s="1"/>
       <c r="G251" s="1"/>
       <c r="H251" s="1"/>
-      <c r="I251" s="1"/>
       <c r="J251" s="1"/>
       <c r="K251" s="1"/>
       <c r="L251" s="1"/>
@@ -3259,7 +3359,6 @@
       <c r="F252" s="1"/>
       <c r="G252" s="1"/>
       <c r="H252" s="1"/>
-      <c r="I252" s="1"/>
       <c r="J252" s="1"/>
       <c r="K252" s="1"/>
       <c r="L252" s="1"/>
@@ -3267,9 +3366,33 @@
       <c r="N252" s="1"/>
       <c r="O252" s="1"/>
       <c r="P252" s="1"/>
+      <c r="Q252" s="1"/>
     </row>
     <row r="253" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F253" s="1"/>
+      <c r="G253" s="1"/>
+      <c r="H253" s="1"/>
+      <c r="J253" s="1"/>
+      <c r="K253" s="1"/>
+      <c r="L253" s="1"/>
+      <c r="M253" s="1"/>
+      <c r="N253" s="1"/>
+      <c r="O253" s="1"/>
+      <c r="P253" s="1"/>
+      <c r="Q253" s="1"/>
+    </row>
+    <row r="254" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F254" s="1"/>
+      <c r="G254" s="1"/>
+      <c r="H254" s="1"/>
+      <c r="J254" s="1"/>
+      <c r="K254" s="1"/>
+      <c r="L254" s="1"/>
+      <c r="M254" s="1"/>
+      <c r="N254" s="1"/>
+      <c r="O254" s="1"/>
+      <c r="P254" s="1"/>
+      <c r="Q254" s="1"/>
     </row>
     <row r="255" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F255" s="1"/>
@@ -3288,6 +3411,7 @@
       <c r="F256" s="1"/>
       <c r="G256" s="1"/>
       <c r="H256" s="1"/>
+      <c r="I256" s="1"/>
       <c r="J256" s="1"/>
       <c r="K256" s="1"/>
       <c r="L256" s="1"/>
@@ -3301,6 +3425,7 @@
       <c r="F257" s="1"/>
       <c r="G257" s="1"/>
       <c r="H257" s="1"/>
+      <c r="I257" s="1"/>
       <c r="J257" s="1"/>
       <c r="K257" s="1"/>
       <c r="L257" s="1"/>
@@ -3308,33 +3433,9 @@
       <c r="N257" s="1"/>
       <c r="O257" s="1"/>
       <c r="P257" s="1"/>
-      <c r="Q257" s="1"/>
     </row>
     <row r="258" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F258" s="1"/>
-      <c r="G258" s="1"/>
-      <c r="H258" s="1"/>
-      <c r="J258" s="1"/>
-      <c r="K258" s="1"/>
-      <c r="L258" s="1"/>
-      <c r="M258" s="1"/>
-      <c r="N258" s="1"/>
-      <c r="O258" s="1"/>
-      <c r="P258" s="1"/>
-      <c r="Q258" s="1"/>
-    </row>
-    <row r="259" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F259" s="1"/>
-      <c r="G259" s="1"/>
-      <c r="H259" s="1"/>
-      <c r="J259" s="1"/>
-      <c r="K259" s="1"/>
-      <c r="L259" s="1"/>
-      <c r="M259" s="1"/>
-      <c r="N259" s="1"/>
-      <c r="O259" s="1"/>
-      <c r="P259" s="1"/>
-      <c r="Q259" s="1"/>
     </row>
     <row r="260" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F260" s="1"/>
@@ -3353,7 +3454,6 @@
       <c r="F261" s="1"/>
       <c r="G261" s="1"/>
       <c r="H261" s="1"/>
-      <c r="I261" s="1"/>
       <c r="J261" s="1"/>
       <c r="K261" s="1"/>
       <c r="L261" s="1"/>
@@ -3364,16 +3464,39 @@
       <c r="Q261" s="1"/>
     </row>
     <row r="262" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F262" s="1"/>
+      <c r="G262" s="1"/>
+      <c r="H262" s="1"/>
+      <c r="J262" s="1"/>
+      <c r="K262" s="1"/>
+      <c r="L262" s="1"/>
       <c r="M262" s="1"/>
+      <c r="N262" s="1"/>
+      <c r="O262" s="1"/>
+      <c r="P262" s="1"/>
+      <c r="Q262" s="1"/>
+    </row>
+    <row r="263" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F263" s="1"/>
+      <c r="G263" s="1"/>
+      <c r="H263" s="1"/>
+      <c r="J263" s="1"/>
+      <c r="K263" s="1"/>
+      <c r="L263" s="1"/>
+      <c r="M263" s="1"/>
+      <c r="N263" s="1"/>
+      <c r="O263" s="1"/>
+      <c r="P263" s="1"/>
+      <c r="Q263" s="1"/>
     </row>
     <row r="264" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F264" s="1"/>
       <c r="G264" s="1"/>
       <c r="H264" s="1"/>
-      <c r="I264" s="1"/>
       <c r="J264" s="1"/>
       <c r="K264" s="1"/>
       <c r="L264" s="1"/>
+      <c r="M264" s="1"/>
       <c r="N264" s="1"/>
       <c r="O264" s="1"/>
       <c r="P264" s="1"/>
@@ -3383,7 +3506,6 @@
       <c r="F265" s="1"/>
       <c r="G265" s="1"/>
       <c r="H265" s="1"/>
-      <c r="I265" s="1"/>
       <c r="J265" s="1"/>
       <c r="K265" s="1"/>
       <c r="L265" s="1"/>
@@ -3408,32 +3530,7 @@
       <c r="Q266" s="1"/>
     </row>
     <row r="267" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F267" s="1"/>
-      <c r="G267" s="1"/>
-      <c r="H267" s="1"/>
-      <c r="I267" s="1"/>
-      <c r="J267" s="1"/>
-      <c r="K267" s="1"/>
-      <c r="L267" s="1"/>
       <c r="M267" s="1"/>
-      <c r="N267" s="1"/>
-      <c r="O267" s="1"/>
-      <c r="P267" s="1"/>
-      <c r="Q267" s="1"/>
-    </row>
-    <row r="268" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F268" s="1"/>
-      <c r="G268" s="1"/>
-      <c r="H268" s="1"/>
-      <c r="I268" s="1"/>
-      <c r="J268" s="1"/>
-      <c r="K268" s="1"/>
-      <c r="L268" s="1"/>
-      <c r="M268" s="1"/>
-      <c r="N268" s="1"/>
-      <c r="O268" s="1"/>
-      <c r="P268" s="1"/>
-      <c r="Q268" s="1"/>
     </row>
     <row r="269" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F269" s="1"/>
@@ -3443,7 +3540,6 @@
       <c r="J269" s="1"/>
       <c r="K269" s="1"/>
       <c r="L269" s="1"/>
-      <c r="M269" s="1"/>
       <c r="N269" s="1"/>
       <c r="O269" s="1"/>
       <c r="P269" s="1"/>
@@ -3479,15 +3575,41 @@
     </row>
     <row r="272" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F272" s="1"/>
+      <c r="G272" s="1"/>
+      <c r="H272" s="1"/>
+      <c r="I272" s="1"/>
+      <c r="J272" s="1"/>
+      <c r="K272" s="1"/>
+      <c r="L272" s="1"/>
       <c r="M272" s="1"/>
+      <c r="N272" s="1"/>
+      <c r="O272" s="1"/>
+      <c r="P272" s="1"/>
+      <c r="Q272" s="1"/>
+    </row>
+    <row r="273" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F273" s="1"/>
+      <c r="G273" s="1"/>
+      <c r="H273" s="1"/>
+      <c r="I273" s="1"/>
+      <c r="J273" s="1"/>
+      <c r="K273" s="1"/>
+      <c r="L273" s="1"/>
+      <c r="M273" s="1"/>
+      <c r="N273" s="1"/>
+      <c r="O273" s="1"/>
+      <c r="P273" s="1"/>
+      <c r="Q273" s="1"/>
     </row>
     <row r="274" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F274" s="1"/>
       <c r="G274" s="1"/>
       <c r="H274" s="1"/>
+      <c r="I274" s="1"/>
       <c r="J274" s="1"/>
       <c r="K274" s="1"/>
       <c r="L274" s="1"/>
+      <c r="M274" s="1"/>
       <c r="N274" s="1"/>
       <c r="O274" s="1"/>
       <c r="P274" s="1"/>
@@ -3497,6 +3619,7 @@
       <c r="F275" s="1"/>
       <c r="G275" s="1"/>
       <c r="H275" s="1"/>
+      <c r="I275" s="1"/>
       <c r="J275" s="1"/>
       <c r="K275" s="1"/>
       <c r="L275" s="1"/>
@@ -3510,6 +3633,7 @@
       <c r="F276" s="1"/>
       <c r="G276" s="1"/>
       <c r="H276" s="1"/>
+      <c r="I276" s="1"/>
       <c r="J276" s="1"/>
       <c r="K276" s="1"/>
       <c r="L276" s="1"/>
@@ -3521,29 +3645,7 @@
     </row>
     <row r="277" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F277" s="1"/>
-      <c r="G277" s="1"/>
-      <c r="H277" s="1"/>
-      <c r="J277" s="1"/>
-      <c r="K277" s="1"/>
-      <c r="L277" s="1"/>
       <c r="M277" s="1"/>
-      <c r="N277" s="1"/>
-      <c r="O277" s="1"/>
-      <c r="P277" s="1"/>
-      <c r="Q277" s="1"/>
-    </row>
-    <row r="278" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F278" s="1"/>
-      <c r="G278" s="1"/>
-      <c r="H278" s="1"/>
-      <c r="J278" s="1"/>
-      <c r="K278" s="1"/>
-      <c r="L278" s="1"/>
-      <c r="M278" s="1"/>
-      <c r="N278" s="1"/>
-      <c r="O278" s="1"/>
-      <c r="P278" s="1"/>
-      <c r="Q278" s="1"/>
     </row>
     <row r="279" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F279" s="1"/>
@@ -3552,7 +3654,6 @@
       <c r="J279" s="1"/>
       <c r="K279" s="1"/>
       <c r="L279" s="1"/>
-      <c r="M279" s="1"/>
       <c r="N279" s="1"/>
       <c r="O279" s="1"/>
       <c r="P279" s="1"/>
@@ -3562,7 +3663,6 @@
       <c r="F280" s="1"/>
       <c r="G280" s="1"/>
       <c r="H280" s="1"/>
-      <c r="I280" s="1"/>
       <c r="J280" s="1"/>
       <c r="K280" s="1"/>
       <c r="L280" s="1"/>
@@ -3576,7 +3676,6 @@
       <c r="F281" s="1"/>
       <c r="G281" s="1"/>
       <c r="H281" s="1"/>
-      <c r="I281" s="1"/>
       <c r="J281" s="1"/>
       <c r="K281" s="1"/>
       <c r="L281" s="1"/>
@@ -3584,9 +3683,33 @@
       <c r="N281" s="1"/>
       <c r="O281" s="1"/>
       <c r="P281" s="1"/>
+      <c r="Q281" s="1"/>
     </row>
     <row r="282" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F282" s="1"/>
+      <c r="G282" s="1"/>
+      <c r="H282" s="1"/>
+      <c r="J282" s="1"/>
+      <c r="K282" s="1"/>
+      <c r="L282" s="1"/>
+      <c r="M282" s="1"/>
+      <c r="N282" s="1"/>
+      <c r="O282" s="1"/>
+      <c r="P282" s="1"/>
+      <c r="Q282" s="1"/>
+    </row>
+    <row r="283" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F283" s="1"/>
+      <c r="G283" s="1"/>
+      <c r="H283" s="1"/>
+      <c r="J283" s="1"/>
+      <c r="K283" s="1"/>
+      <c r="L283" s="1"/>
+      <c r="M283" s="1"/>
+      <c r="N283" s="1"/>
+      <c r="O283" s="1"/>
+      <c r="P283" s="1"/>
+      <c r="Q283" s="1"/>
     </row>
     <row r="284" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F284" s="1"/>
@@ -3605,6 +3728,7 @@
       <c r="F285" s="1"/>
       <c r="G285" s="1"/>
       <c r="H285" s="1"/>
+      <c r="I285" s="1"/>
       <c r="J285" s="1"/>
       <c r="K285" s="1"/>
       <c r="L285" s="1"/>
@@ -3618,6 +3742,7 @@
       <c r="F286" s="1"/>
       <c r="G286" s="1"/>
       <c r="H286" s="1"/>
+      <c r="I286" s="1"/>
       <c r="J286" s="1"/>
       <c r="K286" s="1"/>
       <c r="L286" s="1"/>
@@ -3625,33 +3750,9 @@
       <c r="N286" s="1"/>
       <c r="O286" s="1"/>
       <c r="P286" s="1"/>
-      <c r="Q286" s="1"/>
     </row>
     <row r="287" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F287" s="1"/>
-      <c r="G287" s="1"/>
-      <c r="H287" s="1"/>
-      <c r="J287" s="1"/>
-      <c r="K287" s="1"/>
-      <c r="L287" s="1"/>
-      <c r="M287" s="1"/>
-      <c r="N287" s="1"/>
-      <c r="O287" s="1"/>
-      <c r="P287" s="1"/>
-      <c r="Q287" s="1"/>
-    </row>
-    <row r="288" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F288" s="1"/>
-      <c r="G288" s="1"/>
-      <c r="H288" s="1"/>
-      <c r="J288" s="1"/>
-      <c r="K288" s="1"/>
-      <c r="L288" s="1"/>
-      <c r="M288" s="1"/>
-      <c r="N288" s="1"/>
-      <c r="O288" s="1"/>
-      <c r="P288" s="1"/>
-      <c r="Q288" s="1"/>
     </row>
     <row r="289" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F289" s="1"/>
@@ -3670,7 +3771,6 @@
       <c r="F290" s="1"/>
       <c r="G290" s="1"/>
       <c r="H290" s="1"/>
-      <c r="I290" s="1"/>
       <c r="J290" s="1"/>
       <c r="K290" s="1"/>
       <c r="L290" s="1"/>
@@ -3684,7 +3784,6 @@
       <c r="F291" s="1"/>
       <c r="G291" s="1"/>
       <c r="H291" s="1"/>
-      <c r="I291" s="1"/>
       <c r="J291" s="1"/>
       <c r="K291" s="1"/>
       <c r="L291" s="1"/>
@@ -3692,9 +3791,33 @@
       <c r="N291" s="1"/>
       <c r="O291" s="1"/>
       <c r="P291" s="1"/>
+      <c r="Q291" s="1"/>
     </row>
     <row r="292" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F292" s="1"/>
+      <c r="G292" s="1"/>
+      <c r="H292" s="1"/>
+      <c r="J292" s="1"/>
+      <c r="K292" s="1"/>
+      <c r="L292" s="1"/>
+      <c r="M292" s="1"/>
+      <c r="N292" s="1"/>
+      <c r="O292" s="1"/>
+      <c r="P292" s="1"/>
+      <c r="Q292" s="1"/>
+    </row>
+    <row r="293" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F293" s="1"/>
+      <c r="G293" s="1"/>
+      <c r="H293" s="1"/>
+      <c r="J293" s="1"/>
+      <c r="K293" s="1"/>
+      <c r="L293" s="1"/>
+      <c r="M293" s="1"/>
+      <c r="N293" s="1"/>
+      <c r="O293" s="1"/>
+      <c r="P293" s="1"/>
+      <c r="Q293" s="1"/>
     </row>
     <row r="294" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F294" s="1"/>
@@ -3713,6 +3836,7 @@
       <c r="F295" s="1"/>
       <c r="G295" s="1"/>
       <c r="H295" s="1"/>
+      <c r="I295" s="1"/>
       <c r="J295" s="1"/>
       <c r="K295" s="1"/>
       <c r="L295" s="1"/>
@@ -3726,6 +3850,7 @@
       <c r="F296" s="1"/>
       <c r="G296" s="1"/>
       <c r="H296" s="1"/>
+      <c r="I296" s="1"/>
       <c r="J296" s="1"/>
       <c r="K296" s="1"/>
       <c r="L296" s="1"/>
@@ -3733,33 +3858,9 @@
       <c r="N296" s="1"/>
       <c r="O296" s="1"/>
       <c r="P296" s="1"/>
-      <c r="Q296" s="1"/>
     </row>
     <row r="297" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F297" s="1"/>
-      <c r="G297" s="1"/>
-      <c r="H297" s="1"/>
-      <c r="J297" s="1"/>
-      <c r="K297" s="1"/>
-      <c r="L297" s="1"/>
-      <c r="M297" s="1"/>
-      <c r="N297" s="1"/>
-      <c r="O297" s="1"/>
-      <c r="P297" s="1"/>
-      <c r="Q297" s="1"/>
-    </row>
-    <row r="298" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F298" s="1"/>
-      <c r="G298" s="1"/>
-      <c r="H298" s="1"/>
-      <c r="J298" s="1"/>
-      <c r="K298" s="1"/>
-      <c r="L298" s="1"/>
-      <c r="M298" s="1"/>
-      <c r="N298" s="1"/>
-      <c r="O298" s="1"/>
-      <c r="P298" s="1"/>
-      <c r="Q298" s="1"/>
     </row>
     <row r="299" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F299" s="1"/>
@@ -3778,7 +3879,6 @@
       <c r="F300" s="1"/>
       <c r="G300" s="1"/>
       <c r="H300" s="1"/>
-      <c r="I300" s="1"/>
       <c r="J300" s="1"/>
       <c r="K300" s="1"/>
       <c r="L300" s="1"/>
@@ -3789,16 +3889,39 @@
       <c r="Q300" s="1"/>
     </row>
     <row r="301" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F301" s="1"/>
+      <c r="G301" s="1"/>
+      <c r="H301" s="1"/>
+      <c r="J301" s="1"/>
+      <c r="K301" s="1"/>
+      <c r="L301" s="1"/>
       <c r="M301" s="1"/>
+      <c r="N301" s="1"/>
+      <c r="O301" s="1"/>
+      <c r="P301" s="1"/>
+      <c r="Q301" s="1"/>
+    </row>
+    <row r="302" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F302" s="1"/>
+      <c r="G302" s="1"/>
+      <c r="H302" s="1"/>
+      <c r="J302" s="1"/>
+      <c r="K302" s="1"/>
+      <c r="L302" s="1"/>
+      <c r="M302" s="1"/>
+      <c r="N302" s="1"/>
+      <c r="O302" s="1"/>
+      <c r="P302" s="1"/>
+      <c r="Q302" s="1"/>
     </row>
     <row r="303" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F303" s="1"/>
       <c r="G303" s="1"/>
       <c r="H303" s="1"/>
-      <c r="I303" s="1"/>
       <c r="J303" s="1"/>
       <c r="K303" s="1"/>
       <c r="L303" s="1"/>
+      <c r="M303" s="1"/>
       <c r="N303" s="1"/>
       <c r="O303" s="1"/>
       <c r="P303" s="1"/>
@@ -3808,7 +3931,6 @@
       <c r="F304" s="1"/>
       <c r="G304" s="1"/>
       <c r="H304" s="1"/>
-      <c r="I304" s="1"/>
       <c r="J304" s="1"/>
       <c r="K304" s="1"/>
       <c r="L304" s="1"/>
@@ -3833,32 +3955,7 @@
       <c r="Q305" s="1"/>
     </row>
     <row r="306" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F306" s="1"/>
-      <c r="G306" s="1"/>
-      <c r="H306" s="1"/>
-      <c r="I306" s="1"/>
-      <c r="J306" s="1"/>
-      <c r="K306" s="1"/>
-      <c r="L306" s="1"/>
       <c r="M306" s="1"/>
-      <c r="N306" s="1"/>
-      <c r="O306" s="1"/>
-      <c r="P306" s="1"/>
-      <c r="Q306" s="1"/>
-    </row>
-    <row r="307" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F307" s="1"/>
-      <c r="G307" s="1"/>
-      <c r="H307" s="1"/>
-      <c r="I307" s="1"/>
-      <c r="J307" s="1"/>
-      <c r="K307" s="1"/>
-      <c r="L307" s="1"/>
-      <c r="M307" s="1"/>
-      <c r="N307" s="1"/>
-      <c r="O307" s="1"/>
-      <c r="P307" s="1"/>
-      <c r="Q307" s="1"/>
     </row>
     <row r="308" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F308" s="1"/>
@@ -3868,7 +3965,6 @@
       <c r="J308" s="1"/>
       <c r="K308" s="1"/>
       <c r="L308" s="1"/>
-      <c r="M308" s="1"/>
       <c r="N308" s="1"/>
       <c r="O308" s="1"/>
       <c r="P308" s="1"/>
@@ -3904,15 +4000,41 @@
     </row>
     <row r="311" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F311" s="1"/>
+      <c r="G311" s="1"/>
+      <c r="H311" s="1"/>
+      <c r="I311" s="1"/>
+      <c r="J311" s="1"/>
+      <c r="K311" s="1"/>
+      <c r="L311" s="1"/>
       <c r="M311" s="1"/>
+      <c r="N311" s="1"/>
+      <c r="O311" s="1"/>
+      <c r="P311" s="1"/>
+      <c r="Q311" s="1"/>
+    </row>
+    <row r="312" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F312" s="1"/>
+      <c r="G312" s="1"/>
+      <c r="H312" s="1"/>
+      <c r="I312" s="1"/>
+      <c r="J312" s="1"/>
+      <c r="K312" s="1"/>
+      <c r="L312" s="1"/>
+      <c r="M312" s="1"/>
+      <c r="N312" s="1"/>
+      <c r="O312" s="1"/>
+      <c r="P312" s="1"/>
+      <c r="Q312" s="1"/>
     </row>
     <row r="313" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F313" s="1"/>
       <c r="G313" s="1"/>
       <c r="H313" s="1"/>
+      <c r="I313" s="1"/>
       <c r="J313" s="1"/>
       <c r="K313" s="1"/>
       <c r="L313" s="1"/>
+      <c r="M313" s="1"/>
       <c r="N313" s="1"/>
       <c r="O313" s="1"/>
       <c r="P313" s="1"/>
@@ -3922,6 +4044,7 @@
       <c r="F314" s="1"/>
       <c r="G314" s="1"/>
       <c r="H314" s="1"/>
+      <c r="I314" s="1"/>
       <c r="J314" s="1"/>
       <c r="K314" s="1"/>
       <c r="L314" s="1"/>
@@ -3935,6 +4058,7 @@
       <c r="F315" s="1"/>
       <c r="G315" s="1"/>
       <c r="H315" s="1"/>
+      <c r="I315" s="1"/>
       <c r="J315" s="1"/>
       <c r="K315" s="1"/>
       <c r="L315" s="1"/>
@@ -3946,29 +4070,7 @@
     </row>
     <row r="316" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F316" s="1"/>
-      <c r="G316" s="1"/>
-      <c r="H316" s="1"/>
-      <c r="J316" s="1"/>
-      <c r="K316" s="1"/>
-      <c r="L316" s="1"/>
       <c r="M316" s="1"/>
-      <c r="N316" s="1"/>
-      <c r="O316" s="1"/>
-      <c r="P316" s="1"/>
-      <c r="Q316" s="1"/>
-    </row>
-    <row r="317" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F317" s="1"/>
-      <c r="G317" s="1"/>
-      <c r="H317" s="1"/>
-      <c r="J317" s="1"/>
-      <c r="K317" s="1"/>
-      <c r="L317" s="1"/>
-      <c r="M317" s="1"/>
-      <c r="N317" s="1"/>
-      <c r="O317" s="1"/>
-      <c r="P317" s="1"/>
-      <c r="Q317" s="1"/>
     </row>
     <row r="318" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F318" s="1"/>
@@ -3977,7 +4079,6 @@
       <c r="J318" s="1"/>
       <c r="K318" s="1"/>
       <c r="L318" s="1"/>
-      <c r="M318" s="1"/>
       <c r="N318" s="1"/>
       <c r="O318" s="1"/>
       <c r="P318" s="1"/>
@@ -3987,7 +4088,6 @@
       <c r="F319" s="1"/>
       <c r="G319" s="1"/>
       <c r="H319" s="1"/>
-      <c r="I319" s="1"/>
       <c r="J319" s="1"/>
       <c r="K319" s="1"/>
       <c r="L319" s="1"/>
@@ -4001,7 +4101,6 @@
       <c r="F320" s="1"/>
       <c r="G320" s="1"/>
       <c r="H320" s="1"/>
-      <c r="I320" s="1"/>
       <c r="J320" s="1"/>
       <c r="K320" s="1"/>
       <c r="L320" s="1"/>
@@ -4009,9 +4108,33 @@
       <c r="N320" s="1"/>
       <c r="O320" s="1"/>
       <c r="P320" s="1"/>
+      <c r="Q320" s="1"/>
     </row>
     <row r="321" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F321" s="1"/>
+      <c r="G321" s="1"/>
+      <c r="H321" s="1"/>
+      <c r="J321" s="1"/>
+      <c r="K321" s="1"/>
+      <c r="L321" s="1"/>
+      <c r="M321" s="1"/>
+      <c r="N321" s="1"/>
+      <c r="O321" s="1"/>
+      <c r="P321" s="1"/>
+      <c r="Q321" s="1"/>
+    </row>
+    <row r="322" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F322" s="1"/>
+      <c r="G322" s="1"/>
+      <c r="H322" s="1"/>
+      <c r="J322" s="1"/>
+      <c r="K322" s="1"/>
+      <c r="L322" s="1"/>
+      <c r="M322" s="1"/>
+      <c r="N322" s="1"/>
+      <c r="O322" s="1"/>
+      <c r="P322" s="1"/>
+      <c r="Q322" s="1"/>
     </row>
     <row r="323" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F323" s="1"/>
@@ -4030,6 +4153,7 @@
       <c r="F324" s="1"/>
       <c r="G324" s="1"/>
       <c r="H324" s="1"/>
+      <c r="I324" s="1"/>
       <c r="J324" s="1"/>
       <c r="K324" s="1"/>
       <c r="L324" s="1"/>
@@ -4043,6 +4167,7 @@
       <c r="F325" s="1"/>
       <c r="G325" s="1"/>
       <c r="H325" s="1"/>
+      <c r="I325" s="1"/>
       <c r="J325" s="1"/>
       <c r="K325" s="1"/>
       <c r="L325" s="1"/>
@@ -4050,33 +4175,9 @@
       <c r="N325" s="1"/>
       <c r="O325" s="1"/>
       <c r="P325" s="1"/>
-      <c r="Q325" s="1"/>
     </row>
     <row r="326" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F326" s="1"/>
-      <c r="G326" s="1"/>
-      <c r="H326" s="1"/>
-      <c r="J326" s="1"/>
-      <c r="K326" s="1"/>
-      <c r="L326" s="1"/>
-      <c r="M326" s="1"/>
-      <c r="N326" s="1"/>
-      <c r="O326" s="1"/>
-      <c r="P326" s="1"/>
-      <c r="Q326" s="1"/>
-    </row>
-    <row r="327" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F327" s="1"/>
-      <c r="G327" s="1"/>
-      <c r="H327" s="1"/>
-      <c r="J327" s="1"/>
-      <c r="K327" s="1"/>
-      <c r="L327" s="1"/>
-      <c r="M327" s="1"/>
-      <c r="N327" s="1"/>
-      <c r="O327" s="1"/>
-      <c r="P327" s="1"/>
-      <c r="Q327" s="1"/>
     </row>
     <row r="328" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F328" s="1"/>
@@ -4095,7 +4196,6 @@
       <c r="F329" s="1"/>
       <c r="G329" s="1"/>
       <c r="H329" s="1"/>
-      <c r="I329" s="1"/>
       <c r="J329" s="1"/>
       <c r="K329" s="1"/>
       <c r="L329" s="1"/>
@@ -4109,7 +4209,6 @@
       <c r="F330" s="1"/>
       <c r="G330" s="1"/>
       <c r="H330" s="1"/>
-      <c r="I330" s="1"/>
       <c r="J330" s="1"/>
       <c r="K330" s="1"/>
       <c r="L330" s="1"/>
@@ -4117,9 +4216,33 @@
       <c r="N330" s="1"/>
       <c r="O330" s="1"/>
       <c r="P330" s="1"/>
+      <c r="Q330" s="1"/>
     </row>
     <row r="331" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F331" s="1"/>
+      <c r="G331" s="1"/>
+      <c r="H331" s="1"/>
+      <c r="J331" s="1"/>
+      <c r="K331" s="1"/>
+      <c r="L331" s="1"/>
+      <c r="M331" s="1"/>
+      <c r="N331" s="1"/>
+      <c r="O331" s="1"/>
+      <c r="P331" s="1"/>
+      <c r="Q331" s="1"/>
+    </row>
+    <row r="332" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F332" s="1"/>
+      <c r="G332" s="1"/>
+      <c r="H332" s="1"/>
+      <c r="J332" s="1"/>
+      <c r="K332" s="1"/>
+      <c r="L332" s="1"/>
+      <c r="M332" s="1"/>
+      <c r="N332" s="1"/>
+      <c r="O332" s="1"/>
+      <c r="P332" s="1"/>
+      <c r="Q332" s="1"/>
     </row>
     <row r="333" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F333" s="1"/>
@@ -4138,6 +4261,7 @@
       <c r="F334" s="1"/>
       <c r="G334" s="1"/>
       <c r="H334" s="1"/>
+      <c r="I334" s="1"/>
       <c r="J334" s="1"/>
       <c r="K334" s="1"/>
       <c r="L334" s="1"/>
@@ -4151,6 +4275,7 @@
       <c r="F335" s="1"/>
       <c r="G335" s="1"/>
       <c r="H335" s="1"/>
+      <c r="I335" s="1"/>
       <c r="J335" s="1"/>
       <c r="K335" s="1"/>
       <c r="L335" s="1"/>
@@ -4158,33 +4283,9 @@
       <c r="N335" s="1"/>
       <c r="O335" s="1"/>
       <c r="P335" s="1"/>
-      <c r="Q335" s="1"/>
     </row>
     <row r="336" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F336" s="1"/>
-      <c r="G336" s="1"/>
-      <c r="H336" s="1"/>
-      <c r="J336" s="1"/>
-      <c r="K336" s="1"/>
-      <c r="L336" s="1"/>
-      <c r="M336" s="1"/>
-      <c r="N336" s="1"/>
-      <c r="O336" s="1"/>
-      <c r="P336" s="1"/>
-      <c r="Q336" s="1"/>
-    </row>
-    <row r="337" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F337" s="1"/>
-      <c r="G337" s="1"/>
-      <c r="H337" s="1"/>
-      <c r="J337" s="1"/>
-      <c r="K337" s="1"/>
-      <c r="L337" s="1"/>
-      <c r="M337" s="1"/>
-      <c r="N337" s="1"/>
-      <c r="O337" s="1"/>
-      <c r="P337" s="1"/>
-      <c r="Q337" s="1"/>
     </row>
     <row r="338" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F338" s="1"/>
@@ -4203,7 +4304,6 @@
       <c r="F339" s="1"/>
       <c r="G339" s="1"/>
       <c r="H339" s="1"/>
-      <c r="I339" s="1"/>
       <c r="J339" s="1"/>
       <c r="K339" s="1"/>
       <c r="L339" s="1"/>
@@ -4213,17 +4313,40 @@
       <c r="P339" s="1"/>
       <c r="Q339" s="1"/>
     </row>
+    <row r="340" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F340" s="1"/>
+      <c r="G340" s="1"/>
+      <c r="H340" s="1"/>
+      <c r="J340" s="1"/>
+      <c r="K340" s="1"/>
+      <c r="L340" s="1"/>
+      <c r="M340" s="1"/>
+      <c r="N340" s="1"/>
+      <c r="O340" s="1"/>
+      <c r="P340" s="1"/>
+      <c r="Q340" s="1"/>
+    </row>
     <row r="341" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F341" s="1"/>
+      <c r="G341" s="1"/>
+      <c r="H341" s="1"/>
+      <c r="J341" s="1"/>
+      <c r="K341" s="1"/>
+      <c r="L341" s="1"/>
       <c r="M341" s="1"/>
+      <c r="N341" s="1"/>
+      <c r="O341" s="1"/>
+      <c r="P341" s="1"/>
+      <c r="Q341" s="1"/>
     </row>
     <row r="342" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F342" s="1"/>
       <c r="G342" s="1"/>
       <c r="H342" s="1"/>
-      <c r="I342" s="1"/>
       <c r="J342" s="1"/>
       <c r="K342" s="1"/>
       <c r="L342" s="1"/>
+      <c r="M342" s="1"/>
       <c r="N342" s="1"/>
       <c r="O342" s="1"/>
       <c r="P342" s="1"/>
@@ -4233,10 +4356,10 @@
       <c r="F343" s="1"/>
       <c r="G343" s="1"/>
       <c r="H343" s="1"/>
-      <c r="I343" s="1"/>
       <c r="J343" s="1"/>
       <c r="K343" s="1"/>
       <c r="L343" s="1"/>
+      <c r="M343" s="1"/>
       <c r="N343" s="1"/>
       <c r="O343" s="1"/>
       <c r="P343" s="1"/>
@@ -4250,36 +4373,14 @@
       <c r="J344" s="1"/>
       <c r="K344" s="1"/>
       <c r="L344" s="1"/>
+      <c r="M344" s="1"/>
       <c r="N344" s="1"/>
       <c r="O344" s="1"/>
       <c r="P344" s="1"/>
       <c r="Q344" s="1"/>
     </row>
-    <row r="345" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F345" s="1"/>
-      <c r="G345" s="1"/>
-      <c r="H345" s="1"/>
-      <c r="I345" s="1"/>
-      <c r="J345" s="1"/>
-      <c r="K345" s="1"/>
-      <c r="L345" s="1"/>
-      <c r="N345" s="1"/>
-      <c r="O345" s="1"/>
-      <c r="P345" s="1"/>
-      <c r="Q345" s="1"/>
-    </row>
     <row r="346" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F346" s="1"/>
-      <c r="G346" s="1"/>
-      <c r="H346" s="1"/>
-      <c r="I346" s="1"/>
-      <c r="J346" s="1"/>
-      <c r="K346" s="1"/>
-      <c r="L346" s="1"/>
-      <c r="N346" s="1"/>
-      <c r="O346" s="1"/>
-      <c r="P346" s="1"/>
-      <c r="Q346" s="1"/>
+      <c r="M346" s="1"/>
     </row>
     <row r="347" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F347" s="1"/>
@@ -4318,14 +4419,39 @@
       <c r="N349" s="1"/>
       <c r="O349" s="1"/>
       <c r="P349" s="1"/>
+      <c r="Q349" s="1"/>
     </row>
     <row r="350" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F350" s="1"/>
+      <c r="G350" s="1"/>
+      <c r="H350" s="1"/>
+      <c r="I350" s="1"/>
+      <c r="J350" s="1"/>
+      <c r="K350" s="1"/>
+      <c r="L350" s="1"/>
+      <c r="N350" s="1"/>
+      <c r="O350" s="1"/>
+      <c r="P350" s="1"/>
+      <c r="Q350" s="1"/>
+    </row>
+    <row r="351" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F351" s="1"/>
+      <c r="G351" s="1"/>
+      <c r="H351" s="1"/>
+      <c r="I351" s="1"/>
+      <c r="J351" s="1"/>
+      <c r="K351" s="1"/>
+      <c r="L351" s="1"/>
+      <c r="N351" s="1"/>
+      <c r="O351" s="1"/>
+      <c r="P351" s="1"/>
+      <c r="Q351" s="1"/>
     </row>
     <row r="352" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F352" s="1"/>
       <c r="G352" s="1"/>
       <c r="H352" s="1"/>
+      <c r="I352" s="1"/>
       <c r="J352" s="1"/>
       <c r="K352" s="1"/>
       <c r="L352" s="1"/>
@@ -4338,6 +4464,7 @@
       <c r="F353" s="1"/>
       <c r="G353" s="1"/>
       <c r="H353" s="1"/>
+      <c r="I353" s="1"/>
       <c r="J353" s="1"/>
       <c r="K353" s="1"/>
       <c r="L353" s="1"/>
@@ -4350,37 +4477,16 @@
       <c r="F354" s="1"/>
       <c r="G354" s="1"/>
       <c r="H354" s="1"/>
+      <c r="I354" s="1"/>
       <c r="J354" s="1"/>
       <c r="K354" s="1"/>
       <c r="L354" s="1"/>
       <c r="N354" s="1"/>
       <c r="O354" s="1"/>
       <c r="P354" s="1"/>
-      <c r="Q354" s="1"/>
     </row>
     <row r="355" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F355" s="1"/>
-      <c r="G355" s="1"/>
-      <c r="H355" s="1"/>
-      <c r="J355" s="1"/>
-      <c r="K355" s="1"/>
-      <c r="L355" s="1"/>
-      <c r="N355" s="1"/>
-      <c r="O355" s="1"/>
-      <c r="P355" s="1"/>
-      <c r="Q355" s="1"/>
-    </row>
-    <row r="356" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F356" s="1"/>
-      <c r="G356" s="1"/>
-      <c r="H356" s="1"/>
-      <c r="J356" s="1"/>
-      <c r="K356" s="1"/>
-      <c r="L356" s="1"/>
-      <c r="N356" s="1"/>
-      <c r="O356" s="1"/>
-      <c r="P356" s="1"/>
-      <c r="Q356" s="1"/>
     </row>
     <row r="357" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F357" s="1"/>
@@ -4398,7 +4504,6 @@
       <c r="F358" s="1"/>
       <c r="G358" s="1"/>
       <c r="H358" s="1"/>
-      <c r="I358" s="1"/>
       <c r="J358" s="1"/>
       <c r="K358" s="1"/>
       <c r="L358" s="1"/>
@@ -4407,140 +4512,151 @@
       <c r="P358" s="1"/>
       <c r="Q358" s="1"/>
     </row>
+    <row r="359" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F359" s="1"/>
+      <c r="G359" s="1"/>
+      <c r="H359" s="1"/>
+      <c r="J359" s="1"/>
+      <c r="K359" s="1"/>
+      <c r="L359" s="1"/>
+      <c r="N359" s="1"/>
+      <c r="O359" s="1"/>
+      <c r="P359" s="1"/>
+      <c r="Q359" s="1"/>
+    </row>
     <row r="360" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F360" s="1"/>
       <c r="G360" s="1"/>
       <c r="H360" s="1"/>
-      <c r="I360" s="1"/>
       <c r="J360" s="1"/>
       <c r="K360" s="1"/>
       <c r="L360" s="1"/>
       <c r="N360" s="1"/>
       <c r="O360" s="1"/>
       <c r="P360" s="1"/>
-    </row>
-    <row r="364" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F364" s="1"/>
-    </row>
-    <row r="372" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F372" s="1"/>
-      <c r="M372" s="1"/>
-    </row>
-    <row r="373" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="M373" s="1"/>
-    </row>
-    <row r="374" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="M374" s="1"/>
+      <c r="Q360" s="1"/>
+    </row>
+    <row r="361" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F361" s="1"/>
+      <c r="G361" s="1"/>
+      <c r="H361" s="1"/>
+      <c r="J361" s="1"/>
+      <c r="K361" s="1"/>
+      <c r="L361" s="1"/>
+      <c r="N361" s="1"/>
+      <c r="O361" s="1"/>
+      <c r="P361" s="1"/>
+      <c r="Q361" s="1"/>
+    </row>
+    <row r="362" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F362" s="1"/>
+      <c r="G362" s="1"/>
+      <c r="H362" s="1"/>
+      <c r="J362" s="1"/>
+      <c r="K362" s="1"/>
+      <c r="L362" s="1"/>
+      <c r="N362" s="1"/>
+      <c r="O362" s="1"/>
+      <c r="P362" s="1"/>
+      <c r="Q362" s="1"/>
+    </row>
+    <row r="363" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F363" s="1"/>
+      <c r="G363" s="1"/>
+      <c r="H363" s="1"/>
+      <c r="I363" s="1"/>
+      <c r="J363" s="1"/>
+      <c r="K363" s="1"/>
+      <c r="L363" s="1"/>
+      <c r="N363" s="1"/>
+      <c r="O363" s="1"/>
+      <c r="P363" s="1"/>
+      <c r="Q363" s="1"/>
+    </row>
+    <row r="365" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F365" s="1"/>
+      <c r="G365" s="1"/>
+      <c r="H365" s="1"/>
+      <c r="I365" s="1"/>
+      <c r="J365" s="1"/>
+      <c r="K365" s="1"/>
+      <c r="L365" s="1"/>
+      <c r="N365" s="1"/>
+      <c r="O365" s="1"/>
+      <c r="P365" s="1"/>
+    </row>
+    <row r="369" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F369" s="1"/>
+    </row>
+    <row r="377" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F377" s="1"/>
+      <c r="M377" s="1"/>
+    </row>
+    <row r="378" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="M378" s="1"/>
     </row>
     <row r="379" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F379" s="1"/>
-    </row>
-    <row r="382" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F382" s="1"/>
-    </row>
-    <row r="383" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F383" s="1"/>
-    </row>
-    <row r="386" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F386" s="1"/>
+      <c r="M379" s="1"/>
+    </row>
+    <row r="384" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F384" s="1"/>
     </row>
     <row r="387" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F387" s="1"/>
-      <c r="G387" s="1"/>
     </row>
     <row r="388" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F388" s="1"/>
     </row>
     <row r="391" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F391" s="1"/>
-      <c r="G391" s="1"/>
-      <c r="H391" s="1"/>
-      <c r="I391" s="1"/>
-      <c r="J391" s="1"/>
-      <c r="K391" s="1"/>
-      <c r="L391" s="1"/>
-      <c r="N391" s="1"/>
-      <c r="O391" s="1"/>
-      <c r="P391" s="1"/>
     </row>
     <row r="392" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F392" s="1"/>
       <c r="G392" s="1"/>
-      <c r="H392" s="1"/>
-      <c r="I392" s="1"/>
-      <c r="J392" s="1"/>
-      <c r="K392" s="1"/>
-      <c r="L392" s="1"/>
-      <c r="N392" s="1"/>
-      <c r="O392" s="1"/>
-      <c r="P392" s="1"/>
     </row>
     <row r="393" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F393" s="1"/>
-      <c r="G393" s="1"/>
-      <c r="H393" s="1"/>
-      <c r="I393" s="1"/>
-      <c r="J393" s="1"/>
-      <c r="K393" s="1"/>
-      <c r="L393" s="1"/>
-      <c r="N393" s="1"/>
-      <c r="O393" s="1"/>
-      <c r="P393" s="1"/>
-    </row>
-    <row r="404" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M404" t="b">
+    </row>
+    <row r="396" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F396" s="1"/>
+      <c r="G396" s="1"/>
+      <c r="H396" s="1"/>
+      <c r="I396" s="1"/>
+      <c r="J396" s="1"/>
+      <c r="K396" s="1"/>
+      <c r="L396" s="1"/>
+      <c r="N396" s="1"/>
+      <c r="O396" s="1"/>
+      <c r="P396" s="1"/>
+    </row>
+    <row r="397" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F397" s="1"/>
+      <c r="G397" s="1"/>
+      <c r="H397" s="1"/>
+      <c r="I397" s="1"/>
+      <c r="J397" s="1"/>
+      <c r="K397" s="1"/>
+      <c r="L397" s="1"/>
+      <c r="N397" s="1"/>
+      <c r="O397" s="1"/>
+      <c r="P397" s="1"/>
+    </row>
+    <row r="398" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F398" s="1"/>
+      <c r="G398" s="1"/>
+      <c r="H398" s="1"/>
+      <c r="I398" s="1"/>
+      <c r="J398" s="1"/>
+      <c r="K398" s="1"/>
+      <c r="L398" s="1"/>
+      <c r="N398" s="1"/>
+      <c r="O398" s="1"/>
+      <c r="P398" s="1"/>
+    </row>
+    <row r="409" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M409" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="439" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F439" s="1"/>
-      <c r="G439" s="1"/>
-      <c r="H439" s="1"/>
-      <c r="I439" s="1"/>
-      <c r="J439" s="1"/>
-      <c r="K439" s="1"/>
-      <c r="L439" s="1"/>
-      <c r="N439" s="1"/>
-      <c r="O439" s="1"/>
-      <c r="P439" s="1"/>
-    </row>
-    <row r="440" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F440" s="1"/>
-      <c r="G440" s="1"/>
-      <c r="H440" s="1"/>
-      <c r="I440" s="1"/>
-      <c r="J440" s="1"/>
-      <c r="K440" s="1"/>
-      <c r="L440" s="1"/>
-      <c r="N440" s="1"/>
-      <c r="O440" s="1"/>
-      <c r="P440" s="1"/>
-    </row>
-    <row r="442" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E442" s="1"/>
-      <c r="F442" s="1"/>
-      <c r="G442" s="1"/>
-      <c r="H442" s="1"/>
-      <c r="I442" s="1"/>
-      <c r="J442" s="1"/>
-      <c r="K442" s="1"/>
-      <c r="L442" s="1"/>
-      <c r="N442" s="1"/>
-      <c r="O442" s="1"/>
-      <c r="P442" s="1"/>
-    </row>
-    <row r="443" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E443" s="1"/>
-      <c r="F443" s="1"/>
-      <c r="G443" s="1"/>
-      <c r="H443" s="1"/>
-      <c r="I443" s="1"/>
-      <c r="J443" s="1"/>
-      <c r="K443" s="1"/>
-      <c r="L443" s="1"/>
-      <c r="N443" s="1"/>
-      <c r="O443" s="1"/>
-      <c r="P443" s="1"/>
     </row>
     <row r="444" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F444" s="1"/>
@@ -4566,19 +4682,8 @@
       <c r="O445" s="1"/>
       <c r="P445" s="1"/>
     </row>
-    <row r="446" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F446" s="1"/>
-      <c r="G446" s="1"/>
-      <c r="H446" s="1"/>
-      <c r="I446" s="1"/>
-      <c r="J446" s="1"/>
-      <c r="K446" s="1"/>
-      <c r="L446" s="1"/>
-      <c r="N446" s="1"/>
-      <c r="O446" s="1"/>
-      <c r="P446" s="1"/>
-    </row>
     <row r="447" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E447" s="1"/>
       <c r="F447" s="1"/>
       <c r="G447" s="1"/>
       <c r="H447" s="1"/>
@@ -4591,6 +4696,7 @@
       <c r="P447" s="1"/>
     </row>
     <row r="448" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E448" s="1"/>
       <c r="F448" s="1"/>
       <c r="G448" s="1"/>
       <c r="H448" s="1"/>
@@ -4627,7 +4733,6 @@
       <c r="P450" s="1"/>
     </row>
     <row r="451" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E451" s="1"/>
       <c r="F451" s="1"/>
       <c r="G451" s="1"/>
       <c r="H451" s="1"/>
@@ -4640,7 +4745,6 @@
       <c r="P451" s="1"/>
     </row>
     <row r="452" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E452" s="1"/>
       <c r="F452" s="1"/>
       <c r="G452" s="1"/>
       <c r="H452" s="1"/>
@@ -4689,6 +4793,7 @@
       <c r="P455" s="1"/>
     </row>
     <row r="456" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E456" s="1"/>
       <c r="F456" s="1"/>
       <c r="G456" s="1"/>
       <c r="H456" s="1"/>
@@ -4700,30 +4805,82 @@
       <c r="O456" s="1"/>
       <c r="P456" s="1"/>
     </row>
-    <row r="488" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M488" s="1"/>
-    </row>
-    <row r="490" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M490" s="1"/>
-    </row>
-    <row r="491" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M491" s="1"/>
-    </row>
-    <row r="492" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M492" s="1"/>
+    <row r="457" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E457" s="1"/>
+      <c r="F457" s="1"/>
+      <c r="G457" s="1"/>
+      <c r="H457" s="1"/>
+      <c r="I457" s="1"/>
+      <c r="J457" s="1"/>
+      <c r="K457" s="1"/>
+      <c r="L457" s="1"/>
+      <c r="N457" s="1"/>
+      <c r="O457" s="1"/>
+      <c r="P457" s="1"/>
+    </row>
+    <row r="458" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F458" s="1"/>
+      <c r="G458" s="1"/>
+      <c r="H458" s="1"/>
+      <c r="I458" s="1"/>
+      <c r="J458" s="1"/>
+      <c r="K458" s="1"/>
+      <c r="L458" s="1"/>
+      <c r="N458" s="1"/>
+      <c r="O458" s="1"/>
+      <c r="P458" s="1"/>
+    </row>
+    <row r="459" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F459" s="1"/>
+      <c r="G459" s="1"/>
+      <c r="H459" s="1"/>
+      <c r="I459" s="1"/>
+      <c r="J459" s="1"/>
+      <c r="K459" s="1"/>
+      <c r="L459" s="1"/>
+      <c r="N459" s="1"/>
+      <c r="O459" s="1"/>
+      <c r="P459" s="1"/>
+    </row>
+    <row r="460" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F460" s="1"/>
+      <c r="G460" s="1"/>
+      <c r="H460" s="1"/>
+      <c r="I460" s="1"/>
+      <c r="J460" s="1"/>
+      <c r="K460" s="1"/>
+      <c r="L460" s="1"/>
+      <c r="N460" s="1"/>
+      <c r="O460" s="1"/>
+      <c r="P460" s="1"/>
+    </row>
+    <row r="461" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F461" s="1"/>
+      <c r="G461" s="1"/>
+      <c r="H461" s="1"/>
+      <c r="I461" s="1"/>
+      <c r="J461" s="1"/>
+      <c r="K461" s="1"/>
+      <c r="L461" s="1"/>
+      <c r="N461" s="1"/>
+      <c r="O461" s="1"/>
+      <c r="P461" s="1"/>
     </row>
     <row r="493" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M493" s="1"/>
     </row>
-    <row r="494" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M494" s="1"/>
-    </row>
     <row r="495" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M495" s="1"/>
     </row>
     <row r="496" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M496" s="1"/>
     </row>
+    <row r="497" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M497" s="1"/>
+    </row>
+    <row r="498" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M498" s="1"/>
+    </row>
     <row r="499" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M499" s="1"/>
     </row>
@@ -4733,12 +4890,6 @@
     <row r="501" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M501" s="1"/>
     </row>
-    <row r="502" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M502" s="1"/>
-    </row>
-    <row r="503" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M503" s="1"/>
-    </row>
     <row r="504" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M504" s="1"/>
     </row>
@@ -4748,20 +4899,20 @@
     <row r="506" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M506" s="1"/>
     </row>
-    <row r="519" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M519" s="1"/>
-    </row>
-    <row r="520" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M520" s="1"/>
-    </row>
-    <row r="521" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M521" s="1"/>
-    </row>
-    <row r="522" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M522" s="1"/>
-    </row>
-    <row r="523" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M523" s="1"/>
+    <row r="507" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M507" s="1"/>
+    </row>
+    <row r="508" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M508" s="1"/>
+    </row>
+    <row r="509" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M509" s="1"/>
+    </row>
+    <row r="510" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M510" s="1"/>
+    </row>
+    <row r="511" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M511" s="1"/>
     </row>
     <row r="524" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M524" s="1"/>
@@ -4772,6 +4923,12 @@
     <row r="526" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M526" s="1"/>
     </row>
+    <row r="527" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M527" s="1"/>
+    </row>
+    <row r="528" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M528" s="1"/>
+    </row>
     <row r="529" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M529" s="1"/>
     </row>
@@ -4781,12 +4938,6 @@
     <row r="531" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M531" s="1"/>
     </row>
-    <row r="532" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M532" s="1"/>
-    </row>
-    <row r="533" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M533" s="1"/>
-    </row>
     <row r="534" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M534" s="1"/>
     </row>
@@ -4796,6 +4947,9 @@
     <row r="536" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M536" s="1"/>
     </row>
+    <row r="537" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M537" s="1"/>
+    </row>
     <row r="538" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M538" s="1"/>
     </row>
@@ -4808,9 +4962,6 @@
     <row r="541" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M541" s="1"/>
     </row>
-    <row r="542" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M542" s="1"/>
-    </row>
     <row r="543" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M543" s="1"/>
     </row>
@@ -4820,6 +4971,12 @@
     <row r="545" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M545" s="1"/>
     </row>
+    <row r="546" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M546" s="1"/>
+    </row>
+    <row r="547" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M547" s="1"/>
+    </row>
     <row r="548" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M548" s="1"/>
     </row>
@@ -4829,12 +4986,6 @@
     <row r="550" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M550" s="1"/>
     </row>
-    <row r="551" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M551" s="1"/>
-    </row>
-    <row r="552" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M552" s="1"/>
-    </row>
     <row r="553" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M553" s="1"/>
     </row>
@@ -4844,6 +4995,12 @@
     <row r="555" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M555" s="1"/>
     </row>
+    <row r="556" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M556" s="1"/>
+    </row>
+    <row r="557" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M557" s="1"/>
+    </row>
     <row r="558" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M558" s="1"/>
     </row>
@@ -4853,12 +5010,6 @@
     <row r="560" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M560" s="1"/>
     </row>
-    <row r="561" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M561" s="1"/>
-    </row>
-    <row r="562" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M562" s="1"/>
-    </row>
     <row r="563" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M563" s="1"/>
     </row>
@@ -4868,6 +5019,12 @@
     <row r="565" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M565" s="1"/>
     </row>
+    <row r="566" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M566" s="1"/>
+    </row>
+    <row r="567" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M567" s="1"/>
+    </row>
     <row r="568" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M568" s="1"/>
     </row>
@@ -4877,18 +5034,18 @@
     <row r="570" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M570" s="1"/>
     </row>
-    <row r="571" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M571" s="1"/>
-    </row>
-    <row r="572" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M572" s="1"/>
-    </row>
     <row r="573" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M573" s="1"/>
     </row>
     <row r="574" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M574" s="1"/>
     </row>
+    <row r="575" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M575" s="1"/>
+    </row>
+    <row r="576" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M576" s="1"/>
+    </row>
     <row r="577" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M577" s="1"/>
     </row>
@@ -4898,12 +5055,6 @@
     <row r="579" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M579" s="1"/>
     </row>
-    <row r="580" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M580" s="1"/>
-    </row>
-    <row r="581" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M581" s="1"/>
-    </row>
     <row r="582" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M582" s="1"/>
     </row>
@@ -4913,6 +5064,12 @@
     <row r="584" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M584" s="1"/>
     </row>
+    <row r="585" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M585" s="1"/>
+    </row>
+    <row r="586" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M586" s="1"/>
+    </row>
     <row r="587" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M587" s="1"/>
     </row>
@@ -4922,12 +5079,6 @@
     <row r="589" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M589" s="1"/>
     </row>
-    <row r="590" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M590" s="1"/>
-    </row>
-    <row r="591" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M591" s="1"/>
-    </row>
     <row r="592" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M592" s="1"/>
     </row>
@@ -4937,6 +5088,12 @@
     <row r="594" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M594" s="1"/>
     </row>
+    <row r="595" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M595" s="1"/>
+    </row>
+    <row r="596" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M596" s="1"/>
+    </row>
     <row r="597" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M597" s="1"/>
     </row>
@@ -4946,12 +5103,6 @@
     <row r="599" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M599" s="1"/>
     </row>
-    <row r="600" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M600" s="1"/>
-    </row>
-    <row r="601" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M601" s="1"/>
-    </row>
     <row r="602" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M602" s="1"/>
     </row>
@@ -4961,6 +5112,12 @@
     <row r="604" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M604" s="1"/>
     </row>
+    <row r="605" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M605" s="1"/>
+    </row>
+    <row r="606" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M606" s="1"/>
+    </row>
     <row r="607" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M607" s="1"/>
     </row>
@@ -4970,18 +5127,18 @@
     <row r="609" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M609" s="1"/>
     </row>
-    <row r="610" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M610" s="1"/>
-    </row>
-    <row r="611" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M611" s="1"/>
-    </row>
     <row r="612" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M612" s="1"/>
     </row>
     <row r="613" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M613" s="1"/>
     </row>
+    <row r="614" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M614" s="1"/>
+    </row>
+    <row r="615" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M615" s="1"/>
+    </row>
     <row r="616" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M616" s="1"/>
     </row>
@@ -4991,12 +5148,6 @@
     <row r="618" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M618" s="1"/>
     </row>
-    <row r="619" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M619" s="1"/>
-    </row>
-    <row r="620" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M620" s="1"/>
-    </row>
     <row r="621" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M621" s="1"/>
     </row>
@@ -5006,6 +5157,12 @@
     <row r="623" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M623" s="1"/>
     </row>
+    <row r="624" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M624" s="1"/>
+    </row>
+    <row r="625" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M625" s="1"/>
+    </row>
     <row r="626" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M626" s="1"/>
     </row>
@@ -5015,12 +5172,6 @@
     <row r="628" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M628" s="1"/>
     </row>
-    <row r="629" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M629" s="1"/>
-    </row>
-    <row r="630" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M630" s="1"/>
-    </row>
     <row r="631" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M631" s="1"/>
     </row>
@@ -5030,6 +5181,12 @@
     <row r="633" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M633" s="1"/>
     </row>
+    <row r="634" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M634" s="1"/>
+    </row>
+    <row r="635" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M635" s="1"/>
+    </row>
     <row r="636" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M636" s="1"/>
     </row>
@@ -5039,12 +5196,6 @@
     <row r="638" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M638" s="1"/>
     </row>
-    <row r="639" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M639" s="1"/>
-    </row>
-    <row r="640" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M640" s="1"/>
-    </row>
     <row r="641" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M641" s="1"/>
     </row>
@@ -5054,6 +5205,12 @@
     <row r="643" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M643" s="1"/>
     </row>
+    <row r="644" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M644" s="1"/>
+    </row>
+    <row r="645" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M645" s="1"/>
+    </row>
     <row r="646" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M646" s="1"/>
     </row>
@@ -5063,18 +5220,18 @@
     <row r="648" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M648" s="1"/>
     </row>
-    <row r="649" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M649" s="1"/>
-    </row>
-    <row r="650" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M650" s="1"/>
-    </row>
     <row r="651" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M651" s="1"/>
     </row>
     <row r="652" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M652" s="1"/>
     </row>
+    <row r="653" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M653" s="1"/>
+    </row>
+    <row r="654" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M654" s="1"/>
+    </row>
     <row r="655" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M655" s="1"/>
     </row>
@@ -5084,12 +5241,6 @@
     <row r="657" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M657" s="1"/>
     </row>
-    <row r="658" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M658" s="1"/>
-    </row>
-    <row r="659" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M659" s="1"/>
-    </row>
     <row r="660" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M660" s="1"/>
     </row>
@@ -5099,6 +5250,12 @@
     <row r="662" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M662" s="1"/>
     </row>
+    <row r="663" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M663" s="1"/>
+    </row>
+    <row r="664" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M664" s="1"/>
+    </row>
     <row r="665" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M665" s="1"/>
     </row>
@@ -5108,45 +5265,45 @@
     <row r="667" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M667" s="1"/>
     </row>
-    <row r="668" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M668" s="1"/>
-    </row>
-    <row r="669" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M669" s="1"/>
-    </row>
     <row r="670" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M670" s="1"/>
     </row>
     <row r="671" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M671" s="1"/>
     </row>
+    <row r="672" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M672" s="1"/>
+    </row>
     <row r="673" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M673" s="1"/>
     </row>
-    <row r="749" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M749" s="1"/>
-    </row>
-    <row r="751" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M751" s="1"/>
-    </row>
-    <row r="752" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M752" s="1"/>
-    </row>
-    <row r="753" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M753" s="1"/>
+    <row r="674" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M674" s="1"/>
+    </row>
+    <row r="675" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M675" s="1"/>
+    </row>
+    <row r="676" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M676" s="1"/>
+    </row>
+    <row r="678" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M678" s="1"/>
     </row>
     <row r="754" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M754" s="1"/>
     </row>
-    <row r="755" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M755" s="1"/>
-    </row>
     <row r="756" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M756" s="1"/>
     </row>
     <row r="757" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M757" s="1"/>
     </row>
+    <row r="758" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M758" s="1"/>
+    </row>
+    <row r="759" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M759" s="1"/>
+    </row>
     <row r="760" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M760" s="1"/>
     </row>
@@ -5156,12 +5313,6 @@
     <row r="762" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M762" s="1"/>
     </row>
-    <row r="763" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M763" s="1"/>
-    </row>
-    <row r="764" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M764" s="1"/>
-    </row>
     <row r="765" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M765" s="1"/>
     </row>
@@ -5171,20 +5322,20 @@
     <row r="767" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M767" s="1"/>
     </row>
-    <row r="780" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M780" s="1"/>
-    </row>
-    <row r="781" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M781" s="1"/>
-    </row>
-    <row r="782" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M782" s="1"/>
-    </row>
-    <row r="783" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M783" s="1"/>
-    </row>
-    <row r="784" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M784" s="1"/>
+    <row r="768" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M768" s="1"/>
+    </row>
+    <row r="769" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M769" s="1"/>
+    </row>
+    <row r="770" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M770" s="1"/>
+    </row>
+    <row r="771" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M771" s="1"/>
+    </row>
+    <row r="772" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M772" s="1"/>
     </row>
     <row r="785" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M785" s="1"/>
@@ -5195,6 +5346,12 @@
     <row r="787" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M787" s="1"/>
     </row>
+    <row r="788" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M788" s="1"/>
+    </row>
+    <row r="789" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M789" s="1"/>
+    </row>
     <row r="790" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M790" s="1"/>
     </row>
@@ -5204,12 +5361,6 @@
     <row r="792" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M792" s="1"/>
     </row>
-    <row r="793" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M793" s="1"/>
-    </row>
-    <row r="794" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M794" s="1"/>
-    </row>
     <row r="795" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M795" s="1"/>
     </row>
@@ -5219,6 +5370,9 @@
     <row r="797" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M797" s="1"/>
     </row>
+    <row r="798" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M798" s="1"/>
+    </row>
     <row r="799" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M799" s="1"/>
     </row>
@@ -5231,9 +5385,6 @@
     <row r="802" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M802" s="1"/>
     </row>
-    <row r="803" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M803" s="1"/>
-    </row>
     <row r="804" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M804" s="1"/>
     </row>
@@ -5243,6 +5394,12 @@
     <row r="806" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M806" s="1"/>
     </row>
+    <row r="807" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M807" s="1"/>
+    </row>
+    <row r="808" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M808" s="1"/>
+    </row>
     <row r="809" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M809" s="1"/>
     </row>
@@ -5252,12 +5409,6 @@
     <row r="811" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M811" s="1"/>
     </row>
-    <row r="812" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M812" s="1"/>
-    </row>
-    <row r="813" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M813" s="1"/>
-    </row>
     <row r="814" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M814" s="1"/>
     </row>
@@ -5267,6 +5418,12 @@
     <row r="816" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M816" s="1"/>
     </row>
+    <row r="817" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M817" s="1"/>
+    </row>
+    <row r="818" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M818" s="1"/>
+    </row>
     <row r="819" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M819" s="1"/>
     </row>
@@ -5276,12 +5433,6 @@
     <row r="821" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M821" s="1"/>
     </row>
-    <row r="822" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M822" s="1"/>
-    </row>
-    <row r="823" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M823" s="1"/>
-    </row>
     <row r="824" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M824" s="1"/>
     </row>
@@ -5291,6 +5442,12 @@
     <row r="826" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M826" s="1"/>
     </row>
+    <row r="827" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M827" s="1"/>
+    </row>
+    <row r="828" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M828" s="1"/>
+    </row>
     <row r="829" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M829" s="1"/>
     </row>
@@ -5300,18 +5457,18 @@
     <row r="831" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M831" s="1"/>
     </row>
-    <row r="832" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M832" s="1"/>
-    </row>
-    <row r="833" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M833" s="1"/>
-    </row>
     <row r="834" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M834" s="1"/>
     </row>
     <row r="835" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M835" s="1"/>
     </row>
+    <row r="836" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M836" s="1"/>
+    </row>
+    <row r="837" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M837" s="1"/>
+    </row>
     <row r="838" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M838" s="1"/>
     </row>
@@ -5321,12 +5478,6 @@
     <row r="840" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M840" s="1"/>
     </row>
-    <row r="841" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M841" s="1"/>
-    </row>
-    <row r="842" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M842" s="1"/>
-    </row>
     <row r="843" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M843" s="1"/>
     </row>
@@ -5336,6 +5487,12 @@
     <row r="845" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M845" s="1"/>
     </row>
+    <row r="846" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M846" s="1"/>
+    </row>
+    <row r="847" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M847" s="1"/>
+    </row>
     <row r="848" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M848" s="1"/>
     </row>
@@ -5345,12 +5502,6 @@
     <row r="850" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M850" s="1"/>
     </row>
-    <row r="851" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M851" s="1"/>
-    </row>
-    <row r="852" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M852" s="1"/>
-    </row>
     <row r="853" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M853" s="1"/>
     </row>
@@ -5360,6 +5511,12 @@
     <row r="855" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M855" s="1"/>
     </row>
+    <row r="856" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M856" s="1"/>
+    </row>
+    <row r="857" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M857" s="1"/>
+    </row>
     <row r="858" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M858" s="1"/>
     </row>
@@ -5369,12 +5526,6 @@
     <row r="860" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M860" s="1"/>
     </row>
-    <row r="861" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M861" s="1"/>
-    </row>
-    <row r="862" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M862" s="1"/>
-    </row>
     <row r="863" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M863" s="1"/>
     </row>
@@ -5384,6 +5535,12 @@
     <row r="865" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M865" s="1"/>
     </row>
+    <row r="866" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M866" s="1"/>
+    </row>
+    <row r="867" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M867" s="1"/>
+    </row>
     <row r="868" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M868" s="1"/>
     </row>
@@ -5393,18 +5550,18 @@
     <row r="870" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M870" s="1"/>
     </row>
-    <row r="871" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M871" s="1"/>
-    </row>
-    <row r="872" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M872" s="1"/>
-    </row>
     <row r="873" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M873" s="1"/>
     </row>
     <row r="874" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M874" s="1"/>
     </row>
+    <row r="875" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M875" s="1"/>
+    </row>
+    <row r="876" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M876" s="1"/>
+    </row>
     <row r="877" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M877" s="1"/>
     </row>
@@ -5414,12 +5571,6 @@
     <row r="879" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M879" s="1"/>
     </row>
-    <row r="880" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M880" s="1"/>
-    </row>
-    <row r="881" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M881" s="1"/>
-    </row>
     <row r="882" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M882" s="1"/>
     </row>
@@ -5429,6 +5580,12 @@
     <row r="884" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M884" s="1"/>
     </row>
+    <row r="885" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M885" s="1"/>
+    </row>
+    <row r="886" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M886" s="1"/>
+    </row>
     <row r="887" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M887" s="1"/>
     </row>
@@ -5438,12 +5595,6 @@
     <row r="889" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M889" s="1"/>
     </row>
-    <row r="890" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M890" s="1"/>
-    </row>
-    <row r="891" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M891" s="1"/>
-    </row>
     <row r="892" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M892" s="1"/>
     </row>
@@ -5453,6 +5604,12 @@
     <row r="894" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M894" s="1"/>
     </row>
+    <row r="895" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M895" s="1"/>
+    </row>
+    <row r="896" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M896" s="1"/>
+    </row>
     <row r="897" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M897" s="1"/>
     </row>
@@ -5462,12 +5619,6 @@
     <row r="899" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M899" s="1"/>
     </row>
-    <row r="900" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M900" s="1"/>
-    </row>
-    <row r="901" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M901" s="1"/>
-    </row>
     <row r="902" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M902" s="1"/>
     </row>
@@ -5477,6 +5628,12 @@
     <row r="904" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M904" s="1"/>
     </row>
+    <row r="905" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M905" s="1"/>
+    </row>
+    <row r="906" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M906" s="1"/>
+    </row>
     <row r="907" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M907" s="1"/>
     </row>
@@ -5486,18 +5643,18 @@
     <row r="909" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M909" s="1"/>
     </row>
-    <row r="910" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M910" s="1"/>
-    </row>
-    <row r="911" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M911" s="1"/>
-    </row>
     <row r="912" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M912" s="1"/>
     </row>
     <row r="913" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M913" s="1"/>
     </row>
+    <row r="914" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M914" s="1"/>
+    </row>
+    <row r="915" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M915" s="1"/>
+    </row>
     <row r="916" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M916" s="1"/>
     </row>
@@ -5507,12 +5664,6 @@
     <row r="918" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M918" s="1"/>
     </row>
-    <row r="919" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M919" s="1"/>
-    </row>
-    <row r="920" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M920" s="1"/>
-    </row>
     <row r="921" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M921" s="1"/>
     </row>
@@ -5522,6 +5673,12 @@
     <row r="923" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M923" s="1"/>
     </row>
+    <row r="924" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M924" s="1"/>
+    </row>
+    <row r="925" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M925" s="1"/>
+    </row>
     <row r="926" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M926" s="1"/>
     </row>
@@ -5531,29 +5688,29 @@
     <row r="928" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M928" s="1"/>
     </row>
-    <row r="929" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M929" s="1"/>
-    </row>
-    <row r="930" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M930" s="1"/>
-    </row>
     <row r="931" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M931" s="1"/>
     </row>
     <row r="932" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M932" s="1"/>
     </row>
+    <row r="933" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M933" s="1"/>
+    </row>
     <row r="934" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M934" s="1"/>
     </row>
-    <row r="967" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M967" s="1"/>
-    </row>
-    <row r="968" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M968" s="1"/>
-    </row>
-    <row r="969" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M969" s="1"/>
+    <row r="935" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M935" s="1"/>
+    </row>
+    <row r="936" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M936" s="1"/>
+    </row>
+    <row r="937" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M937" s="1"/>
+    </row>
+    <row r="939" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M939" s="1"/>
     </row>
     <row r="972" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M972" s="1"/>
@@ -5564,45 +5721,45 @@
     <row r="974" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M974" s="1"/>
     </row>
-    <row r="975" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M975" s="1"/>
-    </row>
-    <row r="976" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M976" s="1"/>
-    </row>
     <row r="977" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M977" s="1"/>
     </row>
     <row r="978" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M978" s="1"/>
     </row>
+    <row r="979" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M979" s="1"/>
+    </row>
     <row r="980" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M980" s="1"/>
     </row>
-    <row r="1067" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1067" s="1"/>
-    </row>
-    <row r="1069" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1069" s="1"/>
-    </row>
-    <row r="1070" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1070" s="1"/>
-    </row>
-    <row r="1071" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1071" s="1"/>
+    <row r="981" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M981" s="1"/>
+    </row>
+    <row r="982" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M982" s="1"/>
+    </row>
+    <row r="983" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M983" s="1"/>
+    </row>
+    <row r="985" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M985" s="1"/>
     </row>
     <row r="1072" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1072" s="1"/>
     </row>
-    <row r="1073" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1073" s="1"/>
-    </row>
     <row r="1074" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1074" s="1"/>
     </row>
     <row r="1075" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1075" s="1"/>
     </row>
+    <row r="1076" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1076" s="1"/>
+    </row>
+    <row r="1077" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1077" s="1"/>
+    </row>
     <row r="1078" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1078" s="1"/>
     </row>
@@ -5612,12 +5769,6 @@
     <row r="1080" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1080" s="1"/>
     </row>
-    <row r="1081" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1081" s="1"/>
-    </row>
-    <row r="1082" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1082" s="1"/>
-    </row>
     <row r="1083" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1083" s="1"/>
     </row>
@@ -5627,20 +5778,20 @@
     <row r="1085" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1085" s="1"/>
     </row>
-    <row r="1097" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1097" s="1"/>
-    </row>
-    <row r="1098" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1098" s="1"/>
-    </row>
-    <row r="1099" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1099" s="1"/>
-    </row>
-    <row r="1100" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1100" s="1"/>
-    </row>
-    <row r="1101" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1101" s="1"/>
+    <row r="1086" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1086" s="1"/>
+    </row>
+    <row r="1087" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1087" s="1"/>
+    </row>
+    <row r="1088" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1088" s="1"/>
+    </row>
+    <row r="1089" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1089" s="1"/>
+    </row>
+    <row r="1090" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1090" s="1"/>
     </row>
     <row r="1102" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1102" s="1"/>
@@ -5651,6 +5802,12 @@
     <row r="1104" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1104" s="1"/>
     </row>
+    <row r="1105" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1105" s="1"/>
+    </row>
+    <row r="1106" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1106" s="1"/>
+    </row>
     <row r="1107" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1107" s="1"/>
     </row>
@@ -5660,12 +5817,6 @@
     <row r="1109" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1109" s="1"/>
     </row>
-    <row r="1110" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1110" s="1"/>
-    </row>
-    <row r="1111" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1111" s="1"/>
-    </row>
     <row r="1112" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1112" s="1"/>
     </row>
@@ -5675,6 +5826,9 @@
     <row r="1114" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1114" s="1"/>
     </row>
+    <row r="1115" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1115" s="1"/>
+    </row>
     <row r="1116" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1116" s="1"/>
     </row>
@@ -5687,9 +5841,6 @@
     <row r="1119" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1119" s="1"/>
     </row>
-    <row r="1120" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1120" s="1"/>
-    </row>
     <row r="1121" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1121" s="1"/>
     </row>
@@ -5699,6 +5850,12 @@
     <row r="1123" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1123" s="1"/>
     </row>
+    <row r="1124" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1124" s="1"/>
+    </row>
+    <row r="1125" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1125" s="1"/>
+    </row>
     <row r="1126" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1126" s="1"/>
     </row>
@@ -5708,12 +5865,6 @@
     <row r="1128" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1128" s="1"/>
     </row>
-    <row r="1129" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1129" s="1"/>
-    </row>
-    <row r="1130" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1130" s="1"/>
-    </row>
     <row r="1131" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1131" s="1"/>
     </row>
@@ -5723,6 +5874,12 @@
     <row r="1133" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1133" s="1"/>
     </row>
+    <row r="1134" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1134" s="1"/>
+    </row>
+    <row r="1135" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1135" s="1"/>
+    </row>
     <row r="1136" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1136" s="1"/>
     </row>
@@ -5732,12 +5889,6 @@
     <row r="1138" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1138" s="1"/>
     </row>
-    <row r="1139" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1139" s="1"/>
-    </row>
-    <row r="1140" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1140" s="1"/>
-    </row>
     <row r="1141" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1141" s="1"/>
     </row>
@@ -5747,6 +5898,12 @@
     <row r="1143" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1143" s="1"/>
     </row>
+    <row r="1144" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1144" s="1"/>
+    </row>
+    <row r="1145" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1145" s="1"/>
+    </row>
     <row r="1146" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1146" s="1"/>
     </row>
@@ -5756,18 +5913,18 @@
     <row r="1148" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1148" s="1"/>
     </row>
-    <row r="1149" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1149" s="1"/>
-    </row>
-    <row r="1150" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1150" s="1"/>
-    </row>
     <row r="1151" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1151" s="1"/>
     </row>
     <row r="1152" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1152" s="1"/>
     </row>
+    <row r="1153" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1153" s="1"/>
+    </row>
+    <row r="1154" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1154" s="1"/>
+    </row>
     <row r="1155" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1155" s="1"/>
     </row>
@@ -5777,12 +5934,6 @@
     <row r="1157" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1157" s="1"/>
     </row>
-    <row r="1158" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1158" s="1"/>
-    </row>
-    <row r="1159" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1159" s="1"/>
-    </row>
     <row r="1160" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1160" s="1"/>
     </row>
@@ -5792,6 +5943,12 @@
     <row r="1162" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1162" s="1"/>
     </row>
+    <row r="1163" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1163" s="1"/>
+    </row>
+    <row r="1164" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1164" s="1"/>
+    </row>
     <row r="1165" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1165" s="1"/>
     </row>
@@ -5801,12 +5958,6 @@
     <row r="1167" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1167" s="1"/>
     </row>
-    <row r="1168" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1168" s="1"/>
-    </row>
-    <row r="1169" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1169" s="1"/>
-    </row>
     <row r="1170" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1170" s="1"/>
     </row>
@@ -5816,6 +5967,12 @@
     <row r="1172" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1172" s="1"/>
     </row>
+    <row r="1173" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1173" s="1"/>
+    </row>
+    <row r="1174" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1174" s="1"/>
+    </row>
     <row r="1175" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1175" s="1"/>
     </row>
@@ -5825,12 +5982,6 @@
     <row r="1177" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1177" s="1"/>
     </row>
-    <row r="1178" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1178" s="1"/>
-    </row>
-    <row r="1179" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1179" s="1"/>
-    </row>
     <row r="1180" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1180" s="1"/>
     </row>
@@ -5840,6 +5991,12 @@
     <row r="1182" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1182" s="1"/>
     </row>
+    <row r="1183" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1183" s="1"/>
+    </row>
+    <row r="1184" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1184" s="1"/>
+    </row>
     <row r="1185" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1185" s="1"/>
     </row>
@@ -5849,18 +6006,18 @@
     <row r="1187" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1187" s="1"/>
     </row>
-    <row r="1188" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1188" s="1"/>
-    </row>
-    <row r="1189" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1189" s="1"/>
-    </row>
     <row r="1190" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1190" s="1"/>
     </row>
     <row r="1191" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1191" s="1"/>
     </row>
+    <row r="1192" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1192" s="1"/>
+    </row>
+    <row r="1193" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1193" s="1"/>
+    </row>
     <row r="1194" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1194" s="1"/>
     </row>
@@ -5870,12 +6027,6 @@
     <row r="1196" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1196" s="1"/>
     </row>
-    <row r="1197" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1197" s="1"/>
-    </row>
-    <row r="1198" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1198" s="1"/>
-    </row>
     <row r="1199" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1199" s="1"/>
     </row>
@@ -5885,6 +6036,12 @@
     <row r="1201" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1201" s="1"/>
     </row>
+    <row r="1202" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1202" s="1"/>
+    </row>
+    <row r="1203" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1203" s="1"/>
+    </row>
     <row r="1204" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1204" s="1"/>
     </row>
@@ -5894,12 +6051,6 @@
     <row r="1206" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1206" s="1"/>
     </row>
-    <row r="1207" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1207" s="1"/>
-    </row>
-    <row r="1208" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1208" s="1"/>
-    </row>
     <row r="1209" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1209" s="1"/>
     </row>
@@ -5909,6 +6060,12 @@
     <row r="1211" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1211" s="1"/>
     </row>
+    <row r="1212" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1212" s="1"/>
+    </row>
+    <row r="1213" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1213" s="1"/>
+    </row>
     <row r="1214" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1214" s="1"/>
     </row>
@@ -5918,12 +6075,6 @@
     <row r="1216" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1216" s="1"/>
     </row>
-    <row r="1217" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1217" s="1"/>
-    </row>
-    <row r="1218" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1218" s="1"/>
-    </row>
     <row r="1219" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1219" s="1"/>
     </row>
@@ -5933,6 +6084,12 @@
     <row r="1221" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1221" s="1"/>
     </row>
+    <row r="1222" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1222" s="1"/>
+    </row>
+    <row r="1223" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1223" s="1"/>
+    </row>
     <row r="1224" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1224" s="1"/>
     </row>
@@ -5942,18 +6099,18 @@
     <row r="1226" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1226" s="1"/>
     </row>
-    <row r="1227" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1227" s="1"/>
-    </row>
-    <row r="1228" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1228" s="1"/>
-    </row>
     <row r="1229" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1229" s="1"/>
     </row>
     <row r="1230" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1230" s="1"/>
     </row>
+    <row r="1231" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1231" s="1"/>
+    </row>
+    <row r="1232" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1232" s="1"/>
+    </row>
     <row r="1233" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1233" s="1"/>
     </row>
@@ -5963,12 +6120,6 @@
     <row r="1235" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1235" s="1"/>
     </row>
-    <row r="1236" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1236" s="1"/>
-    </row>
-    <row r="1237" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1237" s="1"/>
-    </row>
     <row r="1238" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1238" s="1"/>
     </row>
@@ -5978,6 +6129,12 @@
     <row r="1240" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1240" s="1"/>
     </row>
+    <row r="1241" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1241" s="1"/>
+    </row>
+    <row r="1242" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1242" s="1"/>
+    </row>
     <row r="1243" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1243" s="1"/>
     </row>
@@ -5987,35 +6144,44 @@
     <row r="1245" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1245" s="1"/>
     </row>
-    <row r="1246" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1246" s="1"/>
-    </row>
-    <row r="1247" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1247" s="1"/>
-    </row>
     <row r="1248" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1248" s="1"/>
     </row>
     <row r="1249" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1249" s="1"/>
     </row>
+    <row r="1250" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1250" s="1"/>
+    </row>
     <row r="1251" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1251" s="1"/>
     </row>
+    <row r="1252" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1252" s="1"/>
+    </row>
+    <row r="1253" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1253" s="1"/>
+    </row>
+    <row r="1254" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1254" s="1"/>
+    </row>
+    <row r="1256" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1256" s="1"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="L342 I342:J342 N342:P342">
+  <conditionalFormatting sqref="L347 I347:J347 N347:P347">
     <cfRule type="duplicateValues" dxfId="4" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M323">
+  <conditionalFormatting sqref="M328">
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1233">
+  <conditionalFormatting sqref="M1238">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M655">
+  <conditionalFormatting sqref="M660">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M916">
+  <conditionalFormatting sqref="M921">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6025,9 +6191,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{138BD5C9-A048-4A3C-8E58-D18F5ADE85B5}">
-  <dimension ref="A1:D217"/>
+  <dimension ref="A1:D224"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:D1048576"/>
     </sheetView>
   </sheetViews>
@@ -7492,7 +7658,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="B105" s="5" t="str">
         <f>"99999"</f>
@@ -7834,15 +8000,15 @@
         <v>243</v>
       </c>
       <c r="B126" s="7" t="str">
-        <f>"24"</f>
+        <f t="shared" ref="B126:D127" si="0">"24"</f>
         <v>24</v>
       </c>
       <c r="C126" s="7" t="str">
-        <f>"24"</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="D126" s="7" t="str">
-        <f>"24"</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
     </row>
@@ -7851,15 +8017,15 @@
         <v>243</v>
       </c>
       <c r="B127" s="7" t="str">
-        <f>"24"</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="C127" s="7" t="str">
-        <f>"24"</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="D127" s="7" t="str">
-        <f>"24"</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
     </row>
@@ -8551,40 +8717,40 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B171" s="7" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C171" s="7" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D171" s="7"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B172" s="7" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C172" s="7" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D172" s="7"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B173" s="7" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C173" s="7" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D173" s="7"/>
     </row>
@@ -8720,72 +8886,72 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="7" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B184" s="7" t="str">
         <f>"9999"</f>
         <v>9999</v>
       </c>
       <c r="C184" s="7" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D184" s="7"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B185" s="5" t="str">
+        <f>"55"</f>
+        <v>55</v>
+      </c>
+      <c r="C185" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="D185" s="5"/>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B186" s="5" t="str">
         <f>"51"</f>
         <v>51</v>
       </c>
-      <c r="C185" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="D185" s="5"/>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="B186" s="5" t="str">
+      <c r="C186" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="D186" s="5"/>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B187" s="5" t="str">
         <f>"53"</f>
         <v>53</v>
       </c>
-      <c r="C186" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="D186" s="5"/>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187" s="5" t="s">
+      <c r="C187" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="B187" s="5" t="str">
+      <c r="D187" s="5"/>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B188" s="5" t="str">
         <f>"54"</f>
         <v>54</v>
       </c>
-      <c r="C187" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="D187" s="5"/>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="B188" s="5" t="str">
-        <f>"55"</f>
-        <v>55</v>
-      </c>
       <c r="C188" s="5" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D188" s="5"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="7" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B189" s="8" t="s">
         <v>301</v>
@@ -8797,382 +8963,484 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="D190" s="5" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="D191" s="5" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="D192" s="5" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="D193" s="5" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="5" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="D194" s="5" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="D195" s="5" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="D196" s="5" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="D197" s="5" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="5" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="D198" s="5" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="5" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="D199" s="5" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="D200" s="5" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="5" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="D201" s="5" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="5" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="D202" s="5" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="5" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B203" s="5" t="s">
         <v>62</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="D203" s="5" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B204" s="7" t="str">
         <f>"999"</f>
         <v>999</v>
       </c>
       <c r="C204" s="7" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D204" s="7"/>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="5" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="B205" s="5" t="str">
+        <f>"4"</f>
+        <v>4</v>
+      </c>
+      <c r="C205" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="D205" s="5"/>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="B206" s="5" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C205" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="D205" s="5"/>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A206" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="B206" s="7" t="str">
+      <c r="C206" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="D206" s="5"/>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="B207" s="5" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C207" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="D207" s="5"/>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="B208" s="5" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+      <c r="C208" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="D208" s="5"/>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="B209" s="7" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C206" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="D206" s="7"/>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A207" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="B207" s="5" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-      <c r="C207" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="D207" s="5"/>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A208" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="B208" s="5" t="str">
+      <c r="C209" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="D209" s="7"/>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="B210" s="7" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C208" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="D208" s="5"/>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A209" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="B209" s="5" t="str">
-        <f>"3"</f>
-        <v>3</v>
-      </c>
-      <c r="C209" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="D209" s="5"/>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A210" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="B210" s="5" t="str">
-        <f>"4"</f>
-        <v>4</v>
-      </c>
-      <c r="C210" s="5" t="s">
-        <v>398</v>
-      </c>
-      <c r="D210" s="5"/>
+      <c r="C210" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="D210" s="7"/>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="7" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="B211" s="7" t="str">
-        <f>"1"</f>
-        <v>1</v>
+        <f>"9"</f>
+        <v>9</v>
       </c>
       <c r="C211" s="7" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="D211" s="7"/>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="7" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="B212" s="7" t="str">
-        <f>"2"</f>
-        <v>2</v>
-      </c>
-      <c r="C212" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="D212" s="7"/>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A213" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="B213" s="7" t="str">
-        <f>"9"</f>
-        <v>9</v>
-      </c>
-      <c r="C213" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="D213" s="7"/>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A214" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="B214" s="7" t="str">
         <f>"99"</f>
         <v>99</v>
       </c>
-      <c r="C214" s="7" t="s">
+      <c r="C212" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D214" s="7"/>
+      <c r="D212" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="B213" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="C213" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="D213" s="5" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="B214" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="C214" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="D214" s="5" t="s">
+        <v>481</v>
+      </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="5" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>440</v>
+        <v>482</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>440</v>
+        <v>482</v>
       </c>
       <c r="D215" s="5" t="s">
-        <v>440</v>
+        <v>482</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="5" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="B216" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="C216" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="D216" s="5" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="B217" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="C217" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="D217" s="5" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="B218" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="C218" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="D218" s="5" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="B219" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="C219" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="D219" s="5" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="B220" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="C220" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="D220" s="5" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="B221" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C221" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D221" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222" s="25" t="s">
+        <v>440</v>
+      </c>
+      <c r="B222" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C222" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="C216" s="5" t="s">
-        <v>441</v>
-      </c>
-      <c r="D216" s="5" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A217" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="B217" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="C217" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="D217" s="7"/>
+      <c r="D222" s="5"/>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="B223" s="7" t="str">
+        <f>"88888"</f>
+        <v>88888</v>
+      </c>
+      <c r="C223" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="D223" s="7"/>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="B224" s="7" t="str">
+        <f>"99999"</f>
+        <v>99999</v>
+      </c>
+      <c r="C224" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D224" s="7" t="s">
+        <v>195</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9272,15 +9540,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49955335-AC2E-46D7-A127-46FEF28BC146}">
-  <dimension ref="A1:D151"/>
+  <dimension ref="A1:D170"/>
   <sheetViews>
-    <sheetView topLeftCell="A117" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
       <selection activeCell="A117" sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
@@ -9390,7 +9658,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>20</v>
@@ -9401,18 +9669,18 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>316</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="12" t="b">
+        <v>476</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="13" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>9</v>
@@ -9423,7 +9691,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>9</v>
@@ -9434,10 +9702,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="C14" s="12" t="b">
         <v>0</v>
@@ -9445,7 +9713,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>36</v>
@@ -9456,10 +9724,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>311</v>
+        <v>36</v>
       </c>
       <c r="C16" s="12" t="b">
         <v>0</v>
@@ -9467,10 +9735,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>36</v>
+        <v>311</v>
       </c>
       <c r="C17" s="12" t="b">
         <v>0</v>
@@ -9478,21 +9746,21 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>311</v>
+        <v>36</v>
       </c>
       <c r="C18" s="12" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
-        <v>324</v>
+      <c r="A19" s="13" t="s">
+        <v>323</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>20</v>
+        <v>311</v>
       </c>
       <c r="C19" s="12" t="b">
         <v>0</v>
@@ -9500,7 +9768,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>20</v>
@@ -9511,10 +9779,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>326</v>
+        <v>477</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C21" s="12" t="b">
         <v>0</v>
@@ -9522,10 +9790,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>327</v>
+        <v>478</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C22" s="12" t="b">
         <v>0</v>
@@ -9533,10 +9801,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>328</v>
+        <v>475</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C23" s="12" t="b">
         <v>0</v>
@@ -9544,10 +9812,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C24" s="12" t="b">
         <v>0</v>
@@ -9555,10 +9823,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C25" s="12" t="b">
         <v>0</v>
@@ -9566,21 +9834,21 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>54</v>
+        <v>327</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="C26" s="12" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
-        <v>331</v>
+      <c r="A27" s="12" t="s">
+        <v>328</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C27" s="12" t="b">
         <v>0</v>
@@ -9588,10 +9856,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C28" s="12" t="b">
         <v>0</v>
@@ -9599,10 +9867,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C29" s="12" t="b">
         <v>0</v>
@@ -9610,21 +9878,21 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>334</v>
+        <v>54</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C30" s="12" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
-        <v>335</v>
+      <c r="A31" s="13" t="s">
+        <v>331</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" s="12" t="b">
         <v>0</v>
@@ -9632,21 +9900,21 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>311</v>
+        <v>20</v>
       </c>
       <c r="C32" s="12" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
-        <v>337</v>
+      <c r="A33" s="12" t="s">
+        <v>333</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C33" s="12" t="b">
         <v>0</v>
@@ -9654,10 +9922,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C34" s="12" t="b">
         <v>0</v>
@@ -9665,10 +9933,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>253</v>
+        <v>335</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="C35" s="12" t="b">
         <v>0</v>
@@ -9676,10 +9944,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>386</v>
+        <v>336</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>8</v>
+        <v>311</v>
       </c>
       <c r="C36" s="12" t="b">
         <v>0</v>
@@ -9687,7 +9955,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B37" s="12" t="s">
         <v>21</v>
@@ -9697,11 +9965,11 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="13" t="s">
-        <v>340</v>
+      <c r="A38" s="12" t="s">
+        <v>338</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C38" s="12" t="b">
         <v>0</v>
@@ -9709,10 +9977,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
-        <v>341</v>
+        <v>253</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="C39" s="12" t="b">
         <v>0</v>
@@ -9720,7 +9988,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
-        <v>342</v>
+        <v>384</v>
       </c>
       <c r="B40" s="12" t="s">
         <v>8</v>
@@ -9730,30 +9998,30 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="12" t="s">
-        <v>343</v>
+      <c r="A41" s="13" t="s">
+        <v>339</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C41" s="12" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="12" t="s">
-        <v>344</v>
+      <c r="A42" s="13" t="s">
+        <v>340</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C42" s="12" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="12" t="s">
-        <v>345</v>
+      <c r="A43" s="13" t="s">
+        <v>503</v>
       </c>
       <c r="B43" s="12" t="s">
         <v>20</v>
@@ -9764,10 +10032,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C44" s="12" t="b">
         <v>0</v>
@@ -9775,10 +10043,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C45" s="12" t="b">
         <v>0</v>
@@ -9786,10 +10054,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>311</v>
+        <v>9</v>
       </c>
       <c r="C46" s="12" t="b">
         <v>0</v>
@@ -9797,21 +10065,21 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
-        <v>424</v>
+        <v>344</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C47" s="12" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="13" t="s">
-        <v>349</v>
+      <c r="A48" s="12" t="s">
+        <v>345</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C48" s="12" t="b">
         <v>0</v>
@@ -9819,43 +10087,43 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
-        <v>401</v>
+        <v>346</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C49" s="12" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="13" t="s">
-        <v>350</v>
+      <c r="A50" s="12" t="s">
+        <v>347</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C50" s="12" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="13" t="s">
-        <v>351</v>
+      <c r="A51" s="12" t="s">
+        <v>348</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>21</v>
+        <v>311</v>
       </c>
       <c r="C51" s="12" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="13" t="s">
-        <v>352</v>
+      <c r="A52" s="12" t="s">
+        <v>417</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C52" s="12" t="b">
         <v>0</v>
@@ -9863,7 +10131,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B53" s="12" t="s">
         <v>21</v>
@@ -9873,22 +10141,22 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="13" t="s">
-        <v>354</v>
+      <c r="A54" s="12" t="s">
+        <v>399</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C54" s="12" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="13" t="s">
-        <v>355</v>
+      <c r="A55" s="12" t="s">
+        <v>414</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C55" s="12" t="b">
         <v>0</v>
@@ -9896,7 +10164,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="B56" s="12" t="s">
         <v>21</v>
@@ -9907,7 +10175,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="B57" s="12" t="s">
         <v>21</v>
@@ -9917,8 +10185,8 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="12" t="s">
-        <v>358</v>
+      <c r="A58" s="13" t="s">
+        <v>352</v>
       </c>
       <c r="B58" s="12" t="s">
         <v>21</v>
@@ -9929,7 +10197,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="B59" s="12" t="s">
         <v>21</v>
@@ -9940,7 +10208,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="B60" s="12" t="s">
         <v>21</v>
@@ -9951,7 +10219,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="B61" s="12" t="s">
         <v>21</v>
@@ -9961,77 +10229,77 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="B62" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C62" s="15" t="b">
-        <v>1</v>
+      <c r="A62" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C62" s="12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="B63" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C63" s="15" t="b">
-        <v>1</v>
+      <c r="A63" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C63" s="12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="B64" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C64" s="15" t="b">
-        <v>1</v>
+      <c r="A64" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C64" s="12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="15" t="s">
-        <v>296</v>
-      </c>
-      <c r="B65" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C65" s="15" t="b">
-        <v>1</v>
+      <c r="A65" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C65" s="12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B66" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C66" s="15" t="b">
-        <v>1</v>
+      <c r="A66" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C66" s="12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="15" t="s">
-        <v>294</v>
-      </c>
-      <c r="B67" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C67" s="15" t="b">
-        <v>1</v>
+      <c r="A67" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C67" s="12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="15" t="s">
-        <v>297</v>
+        <v>89</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>146</v>
+        <v>20</v>
       </c>
       <c r="C68" s="15" t="b">
         <v>1</v>
@@ -10039,10 +10307,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="15" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>146</v>
+        <v>8</v>
       </c>
       <c r="C69" s="15" t="b">
         <v>1</v>
@@ -10050,10 +10318,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="15" t="s">
-        <v>292</v>
+        <v>90</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C70" s="15" t="b">
         <v>1</v>
@@ -10061,10 +10329,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="15" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="C71" s="15" t="b">
         <v>1</v>
@@ -10072,10 +10340,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="15" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C72" s="15" t="b">
         <v>1</v>
@@ -10083,29 +10351,29 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="15" t="s">
-        <v>98</v>
+        <v>294</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>146</v>
+        <v>8</v>
       </c>
       <c r="C73" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="16" t="s">
-        <v>270</v>
+      <c r="A74" s="15" t="s">
+        <v>297</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>50</v>
+        <v>146</v>
       </c>
       <c r="C74" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="16" t="s">
-        <v>105</v>
+      <c r="A75" s="15" t="s">
+        <v>285</v>
       </c>
       <c r="B75" s="15" t="s">
         <v>146</v>
@@ -10115,41 +10383,41 @@
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="16" t="s">
-        <v>274</v>
+      <c r="A76" s="15" t="s">
+        <v>292</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C76" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="16" t="s">
-        <v>106</v>
+      <c r="A77" s="15" t="s">
+        <v>293</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>146</v>
+        <v>36</v>
       </c>
       <c r="C77" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="16" t="s">
-        <v>278</v>
+      <c r="A78" s="15" t="s">
+        <v>51</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>50</v>
+        <v>146</v>
       </c>
       <c r="C78" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="16" t="s">
-        <v>248</v>
+      <c r="A79" s="15" t="s">
+        <v>98</v>
       </c>
       <c r="B79" s="15" t="s">
         <v>146</v>
@@ -10159,66 +10427,66 @@
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="15" t="s">
-        <v>242</v>
+      <c r="A80" s="16" t="s">
+        <v>270</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="C80" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="15" t="s">
-        <v>243</v>
+      <c r="A81" s="16" t="s">
+        <v>105</v>
       </c>
       <c r="B81" s="15" t="s">
-        <v>36</v>
+        <v>146</v>
       </c>
       <c r="C81" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="15" t="s">
-        <v>244</v>
+      <c r="A82" s="16" t="s">
+        <v>274</v>
       </c>
       <c r="B82" s="15" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="C82" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="15" t="s">
-        <v>245</v>
+      <c r="A83" s="16" t="s">
+        <v>106</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>36</v>
+        <v>146</v>
       </c>
       <c r="C83" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="15" t="s">
-        <v>246</v>
+      <c r="A84" s="16" t="s">
+        <v>278</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="C84" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="15" t="s">
-        <v>247</v>
+      <c r="A85" s="16" t="s">
+        <v>248</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>36</v>
+        <v>146</v>
       </c>
       <c r="C85" s="15" t="b">
         <v>1</v>
@@ -10226,7 +10494,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="15" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="B86" s="15" t="s">
         <v>36</v>
@@ -10237,10 +10505,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="15" t="s">
-        <v>289</v>
+        <v>243</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C87" s="15" t="b">
         <v>1</v>
@@ -10248,10 +10516,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="15" t="s">
-        <v>286</v>
+        <v>244</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>146</v>
+        <v>36</v>
       </c>
       <c r="C88" s="15" t="b">
         <v>1</v>
@@ -10259,10 +10527,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="15" t="s">
-        <v>291</v>
+        <v>245</v>
       </c>
       <c r="B89" s="15" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C89" s="15" t="b">
         <v>1</v>
@@ -10270,10 +10538,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="15" t="s">
-        <v>288</v>
+        <v>246</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>146</v>
+        <v>36</v>
       </c>
       <c r="C90" s="15" t="b">
         <v>1</v>
@@ -10281,10 +10549,10 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="15" t="s">
-        <v>290</v>
+        <v>247</v>
       </c>
       <c r="B91" s="15" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C91" s="15" t="b">
         <v>1</v>
@@ -10292,76 +10560,76 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="15" t="s">
-        <v>287</v>
+        <v>250</v>
       </c>
       <c r="B92" s="15" t="s">
-        <v>146</v>
+        <v>36</v>
       </c>
       <c r="C92" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="16" t="s">
-        <v>93</v>
+      <c r="A93" s="15" t="s">
+        <v>289</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>146</v>
+        <v>20</v>
       </c>
       <c r="C93" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="16" t="s">
-        <v>269</v>
+      <c r="A94" s="15" t="s">
+        <v>286</v>
       </c>
       <c r="B94" s="15" t="s">
-        <v>50</v>
+        <v>146</v>
       </c>
       <c r="C94" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="16" t="s">
-        <v>108</v>
+      <c r="A95" s="15" t="s">
+        <v>291</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>146</v>
+        <v>20</v>
       </c>
       <c r="C95" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="16" t="s">
-        <v>284</v>
+      <c r="A96" s="15" t="s">
+        <v>288</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>50</v>
+        <v>146</v>
       </c>
       <c r="C96" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="16" t="s">
-        <v>99</v>
+      <c r="A97" s="15" t="s">
+        <v>290</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>146</v>
+        <v>20</v>
       </c>
       <c r="C97" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="16" t="s">
-        <v>272</v>
+      <c r="A98" s="15" t="s">
+        <v>287</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>50</v>
+        <v>146</v>
       </c>
       <c r="C98" s="15" t="b">
         <v>1</v>
@@ -10369,7 +10637,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="16" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B99" s="15" t="s">
         <v>146</v>
@@ -10380,7 +10648,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="16" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B100" s="15" t="s">
         <v>50</v>
@@ -10391,7 +10659,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="16" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B101" s="15" t="s">
         <v>146</v>
@@ -10402,7 +10670,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="16" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B102" s="15" t="s">
         <v>50</v>
@@ -10413,7 +10681,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="16" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B103" s="15" t="s">
         <v>146</v>
@@ -10424,7 +10692,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B104" s="15" t="s">
         <v>50</v>
@@ -10435,7 +10703,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="16" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B105" s="15" t="s">
         <v>146</v>
@@ -10446,7 +10714,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="16" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B106" s="15" t="s">
         <v>50</v>
@@ -10457,7 +10725,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="16" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B107" s="15" t="s">
         <v>146</v>
@@ -10468,7 +10736,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="16" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B108" s="15" t="s">
         <v>50</v>
@@ -10479,7 +10747,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="16" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B109" s="15" t="s">
         <v>146</v>
@@ -10490,7 +10758,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="16" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B110" s="15" t="s">
         <v>50</v>
@@ -10501,7 +10769,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="16" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B111" s="15" t="s">
         <v>146</v>
@@ -10512,7 +10780,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="16" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B112" s="15" t="s">
         <v>50</v>
@@ -10523,7 +10791,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="16" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B113" s="15" t="s">
         <v>146</v>
@@ -10534,7 +10802,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="16" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B114" s="15" t="s">
         <v>50</v>
@@ -10545,7 +10813,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="16" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="B115" s="15" t="s">
         <v>146</v>
@@ -10556,7 +10824,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="16" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="B116" s="15" t="s">
         <v>50</v>
@@ -10567,7 +10835,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="16" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="B117" s="15" t="s">
         <v>146</v>
@@ -10578,7 +10846,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="16" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="B118" s="15" t="s">
         <v>50</v>
@@ -10588,253 +10856,253 @@
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="14" t="s">
-        <v>387</v>
-      </c>
-      <c r="B119" s="14" t="s">
+      <c r="A119" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="B119" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="C119" s="15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="B120" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C120" s="15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="B121" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="C121" s="15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="B122" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C122" s="15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B123" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="C123" s="15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="B124" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C124" s="15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="14" t="s">
+        <v>385</v>
+      </c>
+      <c r="B125" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C119" s="14" t="b">
+      <c r="C125" s="14" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="14" t="s">
-        <v>375</v>
-      </c>
-      <c r="B120" s="14" t="s">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="B126" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C120" s="14" t="b">
+      <c r="C126" s="14" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="14" t="s">
-        <v>376</v>
-      </c>
-      <c r="B121" s="14" t="s">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="B127" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C121" s="14" t="b">
+      <c r="C127" s="14" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="17" t="s">
-        <v>379</v>
-      </c>
-      <c r="B122" s="18" t="s">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="14" t="s">
+        <v>493</v>
+      </c>
+      <c r="B128" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C128" s="14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="17" t="s">
+        <v>377</v>
+      </c>
+      <c r="B129" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="C122" s="18" t="b">
+      <c r="C129" s="18" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" s="17" t="s">
-        <v>384</v>
-      </c>
-      <c r="B123" s="18" t="s">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="B130" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="C123" s="18" t="b">
+      <c r="C130" s="18" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="19" t="s">
-        <v>407</v>
-      </c>
-      <c r="B124" s="19" t="s">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="17" t="s">
+        <v>494</v>
+      </c>
+      <c r="B131" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="C131" s="18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="23" t="s">
+        <v>469</v>
+      </c>
+      <c r="B132" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C132" s="23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="23" t="s">
+        <v>474</v>
+      </c>
+      <c r="B133" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C124" s="19" t="b">
+      <c r="C133" s="23" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="19" t="s">
-        <v>408</v>
-      </c>
-      <c r="B125" s="19" t="s">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="23" t="s">
+        <v>472</v>
+      </c>
+      <c r="B134" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C125" s="19" t="b">
+      <c r="C134" s="23" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="19" t="s">
-        <v>425</v>
-      </c>
-      <c r="B126" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C126" s="19" t="b">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="23" t="s">
+        <v>470</v>
+      </c>
+      <c r="B135" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C135" s="23" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="19" t="s">
-        <v>426</v>
-      </c>
-      <c r="B127" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C127" s="19" t="b">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="23" t="s">
+        <v>386</v>
+      </c>
+      <c r="B136" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C136" s="23" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" s="19" t="s">
-        <v>427</v>
-      </c>
-      <c r="B128" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C128" s="19" t="b">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="23" t="s">
+        <v>400</v>
+      </c>
+      <c r="B137" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C137" s="23" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="19" t="s">
-        <v>428</v>
-      </c>
-      <c r="B129" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C129" s="19" t="b">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="24" t="s">
+        <v>471</v>
+      </c>
+      <c r="B138" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="C138" s="24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="22" t="s">
+        <v>473</v>
+      </c>
+      <c r="B139" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C139" s="22" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="19" t="s">
-        <v>429</v>
-      </c>
-      <c r="B130" s="19" t="s">
-        <v>311</v>
-      </c>
-      <c r="C130" s="19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="19" t="s">
-        <v>430</v>
-      </c>
-      <c r="B131" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C131" s="19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="19" t="s">
-        <v>431</v>
-      </c>
-      <c r="B132" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C132" s="19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="19" t="s">
-        <v>432</v>
-      </c>
-      <c r="B133" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C133" s="19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" s="19" t="s">
-        <v>411</v>
-      </c>
-      <c r="B134" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C134" s="19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="19" t="s">
-        <v>389</v>
-      </c>
-      <c r="B135" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C135" s="19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="19" t="s">
-        <v>399</v>
-      </c>
-      <c r="B136" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C136" s="19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="19" t="s">
-        <v>433</v>
-      </c>
-      <c r="B137" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C137" s="19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" s="19" t="s">
-        <v>388</v>
-      </c>
-      <c r="B138" s="19" t="s">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="22" t="s">
+        <v>409</v>
+      </c>
+      <c r="B140" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C138" s="19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="19" t="s">
-        <v>435</v>
-      </c>
-      <c r="B139" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C139" s="19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" s="19" t="s">
-        <v>434</v>
-      </c>
-      <c r="B140" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C140" s="19" t="b">
+      <c r="C140" s="22" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="19" t="s">
-        <v>402</v>
+        <v>502</v>
       </c>
       <c r="B141" s="19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C141" s="19" t="b">
         <v>0</v>
@@ -10842,7 +11110,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="19" t="s">
-        <v>421</v>
+        <v>405</v>
       </c>
       <c r="B142" s="19" t="s">
         <v>8</v>
@@ -10852,102 +11120,311 @@
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" s="11" t="s">
-        <v>409</v>
-      </c>
-      <c r="B143" s="10" t="s">
+      <c r="A143" s="19" t="s">
+        <v>406</v>
+      </c>
+      <c r="B143" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C143" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="19" t="s">
+        <v>489</v>
+      </c>
+      <c r="B144" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C144" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="19" t="s">
+        <v>418</v>
+      </c>
+      <c r="B145" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C145" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="19" t="s">
+        <v>419</v>
+      </c>
+      <c r="B146" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C146" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="19" t="s">
+        <v>420</v>
+      </c>
+      <c r="B147" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C147" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="19" t="s">
+        <v>421</v>
+      </c>
+      <c r="B148" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C148" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="19" t="s">
+        <v>422</v>
+      </c>
+      <c r="B149" s="19" t="s">
+        <v>311</v>
+      </c>
+      <c r="C149" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="19" t="s">
+        <v>423</v>
+      </c>
+      <c r="B150" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C150" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="19" t="s">
+        <v>424</v>
+      </c>
+      <c r="B151" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C151" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="19" t="s">
+        <v>425</v>
+      </c>
+      <c r="B152" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C152" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="19" t="s">
+        <v>387</v>
+      </c>
+      <c r="B153" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C153" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="19" t="s">
+        <v>397</v>
+      </c>
+      <c r="B154" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C154" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="19" t="s">
+        <v>426</v>
+      </c>
+      <c r="B155" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C155" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="19" t="s">
+        <v>428</v>
+      </c>
+      <c r="B156" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C156" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="19" t="s">
+        <v>427</v>
+      </c>
+      <c r="B157" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C157" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="B158" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="C143" s="10" t="b">
+      <c r="C158" s="10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" s="11" t="s">
-        <v>410</v>
-      </c>
-      <c r="B144" s="10" t="s">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="B159" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="C144" s="10" t="b">
+      <c r="C159" s="10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" s="11" t="s">
-        <v>442</v>
-      </c>
-      <c r="B145" s="10" t="s">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="B160" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="C145" s="10" t="b">
+      <c r="C160" s="10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" s="10" t="s">
-        <v>443</v>
-      </c>
-      <c r="B146" s="10" t="s">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="11" t="s">
+        <v>435</v>
+      </c>
+      <c r="B161" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="C146" s="10" t="b">
+      <c r="C161" s="10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" s="11" t="s">
-        <v>444</v>
-      </c>
-      <c r="B147" s="10" t="s">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="10" t="s">
+        <v>479</v>
+      </c>
+      <c r="B162" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C162" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="B163" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="C147" s="10" t="b">
+      <c r="C163" s="10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" s="10" t="s">
-        <v>445</v>
-      </c>
-      <c r="B148" s="10" t="s">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="B164" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="C148" s="10" t="b">
+      <c r="C164" s="10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" s="10" t="s">
-        <v>400</v>
-      </c>
-      <c r="B149" s="10" t="s">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="B165" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="C149" s="10" t="b">
+      <c r="C165" s="10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" s="10" t="s">
-        <v>446</v>
-      </c>
-      <c r="B150" s="10" t="s">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="10" t="s">
+        <v>480</v>
+      </c>
+      <c r="B166" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="C150" s="10" t="b">
+      <c r="C166" s="10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" s="22" t="s">
-        <v>413</v>
-      </c>
-      <c r="B151" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C151" s="22" t="b">
-        <v>0</v>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="B167" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C167" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="10" t="s">
+        <v>491</v>
+      </c>
+      <c r="B168" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C168" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="B169" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C169" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="B170" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C170" s="10" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/triagem/forms/diagnostic/diagnostic.xlsx
+++ b/app/config/tables/triagem/forms/diagnostic/diagnostic.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A95EFDDA-070C-4AE5-A4C0-9BBADBB901FF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4529DFA1-6D47-4060-97E5-416B14FDA35E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="506">
   <si>
     <t>setting_name</t>
   </si>
@@ -961,9 +961,6 @@
     <t>anos</t>
   </si>
   <si>
-    <t>select_one_inline</t>
-  </si>
-  <si>
     <t>bcgmaealt</t>
   </si>
   <si>
@@ -1547,6 +1544,12 @@
   </si>
   <si>
     <t>bloodNA</t>
+  </si>
+  <si>
+    <t>maeq</t>
+  </si>
+  <si>
+    <t>exactdob2</t>
   </si>
 </sst>
 </file>
@@ -2096,7 +2099,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2104,12 +2107,12 @@
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
   </sheetData>
@@ -2238,7 +2241,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2300,7 +2303,7 @@
         <v>28</v>
       </c>
       <c r="M1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>144</v>
@@ -2328,7 +2331,7 @@
         <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G3" t="s">
         <v>307</v>
@@ -2349,16 +2352,16 @@
         <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -2366,26 +2369,26 @@
         <v>146</v>
       </c>
       <c r="E7" t="s">
+        <v>375</v>
+      </c>
+      <c r="F7" t="s">
         <v>376</v>
-      </c>
-      <c r="F7" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
+        <v>377</v>
+      </c>
+      <c r="C8" t="s">
         <v>378</v>
-      </c>
-      <c r="C8" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="L9">
         <v>9999</v>
@@ -2393,7 +2396,7 @@
     </row>
     <row r="10" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -2401,16 +2404,16 @@
         <v>36</v>
       </c>
       <c r="E11" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G11" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H11" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -2418,26 +2421,26 @@
         <v>146</v>
       </c>
       <c r="E12" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C13" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F14" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L14">
         <v>9999</v>
@@ -2445,7 +2448,7 @@
     </row>
     <row r="15" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -2453,16 +2456,16 @@
         <v>36</v>
       </c>
       <c r="E16" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F16" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G16" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H16" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="17" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -2470,26 +2473,26 @@
         <v>146</v>
       </c>
       <c r="E17" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F17" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="18" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C18" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="19" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F19" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="L19">
         <v>9999</v>
@@ -2497,7 +2500,7 @@
     </row>
     <row r="20" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
@@ -7658,7 +7661,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B105" s="5" t="str">
         <f>"99999"</f>
@@ -8717,241 +8720,241 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B171" s="7" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C171" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D171" s="7"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B172" s="7" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C172" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D172" s="7"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B173" s="7" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C173" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D173" s="7"/>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B174" s="5" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D174" s="5"/>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B175" s="5" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D175" s="5"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B176" s="5" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D176" s="5"/>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B177" s="5" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D177" s="5"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B178" s="5" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D178" s="5"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B179" s="5" t="str">
         <f>"6"</f>
         <v>6</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D179" s="5"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B180" s="5" t="str">
         <f>"7"</f>
         <v>7</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D180" s="5"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B181" s="5" t="str">
         <f>"8"</f>
         <v>8</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D181" s="5"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B182" s="5" t="str">
         <f>"9"</f>
         <v>9</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D182" s="5"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B183" s="5" t="str">
         <f>"10"</f>
         <v>10</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D183" s="5"/>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B184" s="7" t="str">
         <f>"9999"</f>
         <v>9999</v>
       </c>
       <c r="C184" s="7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D184" s="7"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B185" s="5" t="str">
         <f>"55"</f>
         <v>55</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D185" s="5"/>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B186" s="5" t="str">
         <f>"51"</f>
         <v>51</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D186" s="5"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B187" s="5" t="str">
         <f>"53"</f>
         <v>53</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D187" s="5"/>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B188" s="5" t="str">
         <f>"54"</f>
         <v>54</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D188" s="5"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B189" s="8" t="s">
         <v>301</v>
@@ -8963,307 +8966,307 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D190" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B191" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="C191" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="C191" s="5" t="s">
-        <v>445</v>
-      </c>
       <c r="D191" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B192" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="C192" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="C192" s="5" t="s">
-        <v>447</v>
-      </c>
       <c r="D192" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B193" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="C193" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="C193" s="5" t="s">
-        <v>449</v>
-      </c>
       <c r="D193" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B194" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="C194" s="5" t="s">
         <v>450</v>
       </c>
-      <c r="C194" s="5" t="s">
-        <v>451</v>
-      </c>
       <c r="D194" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B195" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="C195" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="C195" s="5" t="s">
-        <v>453</v>
-      </c>
       <c r="D195" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B196" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="C196" s="5" t="s">
         <v>454</v>
       </c>
-      <c r="C196" s="5" t="s">
-        <v>455</v>
-      </c>
       <c r="D196" s="5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B197" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="C197" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="C197" s="5" t="s">
-        <v>457</v>
-      </c>
       <c r="D197" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B198" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="C198" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="C198" s="5" t="s">
-        <v>459</v>
-      </c>
       <c r="D198" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B199" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="C199" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="C199" s="5" t="s">
-        <v>461</v>
-      </c>
       <c r="D199" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B200" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="C200" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="C200" s="5" t="s">
-        <v>463</v>
-      </c>
       <c r="D200" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B201" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="C201" s="5" t="s">
         <v>464</v>
       </c>
-      <c r="C201" s="5" t="s">
-        <v>465</v>
-      </c>
       <c r="D201" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B202" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="C202" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="C202" s="5" t="s">
-        <v>467</v>
-      </c>
       <c r="D202" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B203" s="5" t="s">
         <v>62</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D203" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B204" s="7" t="str">
         <f>"999"</f>
         <v>999</v>
       </c>
       <c r="C204" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D204" s="7"/>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B205" s="5" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D205" s="5"/>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B206" s="5" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D206" s="5"/>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B207" s="5" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D207" s="5"/>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B208" s="5" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D208" s="5"/>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="7" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B209" s="7" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C209" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D209" s="7"/>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="7" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B210" s="7" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C210" s="7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D210" s="7"/>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="7" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B211" s="7" t="str">
         <f>"9"</f>
         <v>9</v>
       </c>
       <c r="C211" s="7" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D211" s="7"/>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="7" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B212" s="7" t="str">
         <f>"99"</f>
@@ -9278,119 +9281,119 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C213" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D213" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D214" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D215" s="5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D216" s="5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D217" s="5" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D218" s="5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D219" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D220" s="5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="7" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B221" s="7" t="s">
         <v>62</v>
@@ -9404,32 +9407,32 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="25" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B222" s="5" t="s">
         <v>232</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D222" s="5"/>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="7" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B223" s="7" t="str">
         <f>"88888"</f>
         <v>88888</v>
       </c>
       <c r="C223" s="7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D223" s="7"/>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="7" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B224" s="7" t="str">
         <f>"99999"</f>
@@ -9540,10 +9543,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49955335-AC2E-46D7-A127-46FEF28BC146}">
-  <dimension ref="A1:D170"/>
+  <dimension ref="A1:D172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="A117" sqref="A1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="A124" sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9584,7 +9587,7 @@
         <v>235</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>309</v>
+        <v>36</v>
       </c>
       <c r="C3" s="12" t="b">
         <v>0</v>
@@ -9592,10 +9595,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>310</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>311</v>
       </c>
       <c r="C4" s="12" t="b">
         <v>0</v>
@@ -9603,10 +9606,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C5" s="12" t="b">
         <v>0</v>
@@ -9614,7 +9617,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>8</v>
@@ -9625,7 +9628,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>8</v>
@@ -9636,7 +9639,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>8</v>
@@ -9658,7 +9661,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>20</v>
@@ -9669,7 +9672,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>8</v>
@@ -9680,7 +9683,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>9</v>
@@ -9691,7 +9694,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>9</v>
@@ -9702,7 +9705,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>9</v>
@@ -9713,7 +9716,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>36</v>
@@ -9724,7 +9727,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>36</v>
@@ -9735,10 +9738,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C17" s="12" t="b">
         <v>0</v>
@@ -9746,7 +9749,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>36</v>
@@ -9757,10 +9760,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C19" s="12" t="b">
         <v>0</v>
@@ -9768,7 +9771,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>20</v>
@@ -9779,7 +9782,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>8</v>
@@ -9790,7 +9793,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>8</v>
@@ -9801,7 +9804,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>8</v>
@@ -9812,7 +9815,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>20</v>
@@ -9823,7 +9826,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>21</v>
@@ -9834,7 +9837,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>9</v>
@@ -9845,7 +9848,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>20</v>
@@ -9856,7 +9859,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>8</v>
@@ -9867,7 +9870,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B29" s="12" t="s">
         <v>20</v>
@@ -9889,7 +9892,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B31" s="12" t="s">
         <v>9</v>
@@ -9900,7 +9903,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B32" s="12" t="s">
         <v>20</v>
@@ -9911,7 +9914,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B33" s="12" t="s">
         <v>8</v>
@@ -9922,7 +9925,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B34" s="12" t="s">
         <v>8</v>
@@ -9933,7 +9936,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B35" s="12" t="s">
         <v>8</v>
@@ -9944,10 +9947,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C36" s="12" t="b">
         <v>0</v>
@@ -9955,7 +9958,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B37" s="12" t="s">
         <v>21</v>
@@ -9966,7 +9969,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B38" s="12" t="s">
         <v>9</v>
@@ -9988,7 +9991,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B40" s="12" t="s">
         <v>8</v>
@@ -9999,7 +10002,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B41" s="12" t="s">
         <v>21</v>
@@ -10010,7 +10013,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B42" s="12" t="s">
         <v>21</v>
@@ -10021,7 +10024,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B43" s="12" t="s">
         <v>20</v>
@@ -10032,7 +10035,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B44" s="12" t="s">
         <v>9</v>
@@ -10043,7 +10046,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B45" s="12" t="s">
         <v>8</v>
@@ -10054,7 +10057,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B46" s="12" t="s">
         <v>9</v>
@@ -10065,7 +10068,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B47" s="12" t="s">
         <v>8</v>
@@ -10076,7 +10079,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B48" s="12" t="s">
         <v>20</v>
@@ -10087,7 +10090,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B49" s="12" t="s">
         <v>20</v>
@@ -10098,7 +10101,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B50" s="12" t="s">
         <v>20</v>
@@ -10109,10 +10112,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C51" s="12" t="b">
         <v>0</v>
@@ -10120,7 +10123,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B52" s="12" t="s">
         <v>9</v>
@@ -10131,7 +10134,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B53" s="12" t="s">
         <v>21</v>
@@ -10142,7 +10145,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B54" s="12" t="s">
         <v>8</v>
@@ -10153,7 +10156,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B55" s="12" t="s">
         <v>8</v>
@@ -10164,7 +10167,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B56" s="12" t="s">
         <v>21</v>
@@ -10175,7 +10178,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B57" s="12" t="s">
         <v>21</v>
@@ -10186,7 +10189,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B58" s="12" t="s">
         <v>21</v>
@@ -10197,7 +10200,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B59" s="12" t="s">
         <v>21</v>
@@ -10208,7 +10211,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B60" s="12" t="s">
         <v>21</v>
@@ -10219,7 +10222,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B61" s="12" t="s">
         <v>21</v>
@@ -10230,7 +10233,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B62" s="12" t="s">
         <v>21</v>
@@ -10241,7 +10244,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B63" s="12" t="s">
         <v>21</v>
@@ -10252,7 +10255,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B64" s="12" t="s">
         <v>21</v>
@@ -10263,7 +10266,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B65" s="12" t="s">
         <v>21</v>
@@ -10274,7 +10277,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B66" s="12" t="s">
         <v>21</v>
@@ -10285,7 +10288,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B67" s="12" t="s">
         <v>21</v>
@@ -10923,7 +10926,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="14" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B125" s="14" t="s">
         <v>9</v>
@@ -10934,7 +10937,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="14" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B126" s="14" t="s">
         <v>8</v>
@@ -10945,7 +10948,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="14" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B127" s="14" t="s">
         <v>8</v>
@@ -10956,7 +10959,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="14" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B128" s="14" t="s">
         <v>8</v>
@@ -10967,7 +10970,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="17" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B129" s="18" t="s">
         <v>146</v>
@@ -10978,7 +10981,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="17" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B130" s="18" t="s">
         <v>146</v>
@@ -10989,7 +10992,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="17" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B131" s="18" t="s">
         <v>146</v>
@@ -11000,7 +11003,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="23" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B132" s="23" t="s">
         <v>20</v>
@@ -11011,7 +11014,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="23" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B133" s="23" t="s">
         <v>8</v>
@@ -11022,7 +11025,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="23" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B134" s="23" t="s">
         <v>8</v>
@@ -11033,7 +11036,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="23" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B135" s="23" t="s">
         <v>9</v>
@@ -11044,7 +11047,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="23" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B136" s="23" t="s">
         <v>9</v>
@@ -11055,7 +11058,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="23" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B137" s="23" t="s">
         <v>9</v>
@@ -11066,7 +11069,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="24" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B138" s="24" t="s">
         <v>146</v>
@@ -11076,52 +11079,52 @@
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="22" t="s">
-        <v>473</v>
-      </c>
-      <c r="B139" s="22" t="s">
+      <c r="A139" s="24" t="s">
+        <v>505</v>
+      </c>
+      <c r="B139" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C139" s="24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="24" t="s">
+        <v>504</v>
+      </c>
+      <c r="B140" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C140" s="24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="22" t="s">
+        <v>472</v>
+      </c>
+      <c r="B141" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C139" s="22" t="b">
+      <c r="C141" s="22" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" s="22" t="s">
-        <v>409</v>
-      </c>
-      <c r="B140" s="22" t="s">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="22" t="s">
+        <v>408</v>
+      </c>
+      <c r="B142" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C140" s="22" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" s="19" t="s">
-        <v>502</v>
-      </c>
-      <c r="B141" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C141" s="19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="19" t="s">
-        <v>405</v>
-      </c>
-      <c r="B142" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C142" s="19" t="b">
+      <c r="C142" s="22" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="19" t="s">
-        <v>406</v>
+        <v>501</v>
       </c>
       <c r="B143" s="19" t="s">
         <v>8</v>
@@ -11132,7 +11135,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="19" t="s">
-        <v>489</v>
+        <v>404</v>
       </c>
       <c r="B144" s="19" t="s">
         <v>8</v>
@@ -11143,10 +11146,10 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="19" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="B145" s="19" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C145" s="19" t="b">
         <v>0</v>
@@ -11154,10 +11157,10 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="19" t="s">
-        <v>419</v>
+        <v>488</v>
       </c>
       <c r="B146" s="19" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C146" s="19" t="b">
         <v>0</v>
@@ -11165,7 +11168,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="19" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B147" s="19" t="s">
         <v>20</v>
@@ -11176,7 +11179,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="19" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B148" s="19" t="s">
         <v>20</v>
@@ -11187,10 +11190,10 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="19" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B149" s="19" t="s">
-        <v>311</v>
+        <v>20</v>
       </c>
       <c r="C149" s="19" t="b">
         <v>0</v>
@@ -11198,7 +11201,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="19" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B150" s="19" t="s">
         <v>20</v>
@@ -11209,10 +11212,10 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="19" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B151" s="19" t="s">
-        <v>20</v>
+        <v>310</v>
       </c>
       <c r="C151" s="19" t="b">
         <v>0</v>
@@ -11220,7 +11223,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="19" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B152" s="19" t="s">
         <v>20</v>
@@ -11231,10 +11234,10 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="19" t="s">
-        <v>387</v>
+        <v>423</v>
       </c>
       <c r="B153" s="19" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C153" s="19" t="b">
         <v>0</v>
@@ -11242,10 +11245,10 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="19" t="s">
-        <v>397</v>
+        <v>424</v>
       </c>
       <c r="B154" s="19" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C154" s="19" t="b">
         <v>0</v>
@@ -11253,10 +11256,10 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="19" t="s">
-        <v>426</v>
+        <v>386</v>
       </c>
       <c r="B155" s="19" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="C155" s="19" t="b">
         <v>0</v>
@@ -11264,10 +11267,10 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="19" t="s">
-        <v>428</v>
+        <v>396</v>
       </c>
       <c r="B156" s="19" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="C156" s="19" t="b">
         <v>0</v>
@@ -11275,40 +11278,40 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="19" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B157" s="19" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C157" s="19" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158" s="11" t="s">
-        <v>407</v>
-      </c>
-      <c r="B158" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="C158" s="10" t="b">
-        <v>1</v>
+      <c r="A158" s="19" t="s">
+        <v>427</v>
+      </c>
+      <c r="B158" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C158" s="19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159" s="11" t="s">
-        <v>408</v>
-      </c>
-      <c r="B159" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="C159" s="10" t="b">
-        <v>1</v>
+      <c r="A159" s="19" t="s">
+        <v>426</v>
+      </c>
+      <c r="B159" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C159" s="19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="11" t="s">
-        <v>490</v>
+        <v>406</v>
       </c>
       <c r="B160" s="10" t="s">
         <v>146</v>
@@ -11319,7 +11322,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="11" t="s">
-        <v>435</v>
+        <v>407</v>
       </c>
       <c r="B161" s="10" t="s">
         <v>146</v>
@@ -11329,19 +11332,19 @@
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" s="10" t="s">
-        <v>479</v>
+      <c r="A162" s="11" t="s">
+        <v>489</v>
       </c>
       <c r="B162" s="10" t="s">
-        <v>20</v>
+        <v>146</v>
       </c>
       <c r="C162" s="10" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" s="10" t="s">
-        <v>436</v>
+      <c r="A163" s="11" t="s">
+        <v>434</v>
       </c>
       <c r="B163" s="10" t="s">
         <v>146</v>
@@ -11351,11 +11354,11 @@
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" s="11" t="s">
-        <v>437</v>
+      <c r="A164" s="10" t="s">
+        <v>478</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>146</v>
+        <v>20</v>
       </c>
       <c r="C164" s="10" t="b">
         <v>1</v>
@@ -11363,7 +11366,7 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="10" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B165" s="10" t="s">
         <v>146</v>
@@ -11373,8 +11376,8 @@
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166" s="10" t="s">
-        <v>480</v>
+      <c r="A166" s="11" t="s">
+        <v>436</v>
       </c>
       <c r="B166" s="10" t="s">
         <v>146</v>
@@ -11385,7 +11388,7 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="10" t="s">
-        <v>398</v>
+        <v>437</v>
       </c>
       <c r="B167" s="10" t="s">
         <v>146</v>
@@ -11396,10 +11399,10 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="10" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="B168" s="10" t="s">
-        <v>36</v>
+        <v>146</v>
       </c>
       <c r="C168" s="10" t="b">
         <v>1</v>
@@ -11407,7 +11410,7 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="10" t="s">
-        <v>492</v>
+        <v>397</v>
       </c>
       <c r="B169" s="10" t="s">
         <v>146</v>
@@ -11418,12 +11421,34 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="10" t="s">
-        <v>439</v>
+        <v>490</v>
       </c>
       <c r="B170" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C170" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="10" t="s">
+        <v>491</v>
+      </c>
+      <c r="B171" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="C170" s="10" t="b">
+      <c r="C171" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="B172" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C172" s="10" t="b">
         <v>1</v>
       </c>
     </row>
